--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -13116,6 +13116,9 @@
       <x:c r="W2" s="8"/>
       <x:c r="X2" s="8"/>
       <x:c r="Y2" s="8"/>
+      <x:c r="D2" t="s">
+        <x:v>Date: 2021-06-26</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:25" ht="22.5" x14ac:dyDescent="0.45">
       <x:c r="A3" s="14"/>
@@ -14895,6 +14898,145 @@
     <x:mergeCell ref="U35:U35"/>
     <x:mergeCell ref="U36:U36"/>
   </x:mergeCells>
+  <x:hyperlinks>
+    <x:hyperlink ref="D6" location="'Database &amp; Connectivity'!B7"/>
+    <x:hyperlink ref="D7" location="'Database &amp; Connectivity'!C7"/>
+    <x:hyperlink ref="D8" location="'Database &amp; Connectivity'!D7"/>
+    <x:hyperlink ref="D9" location="'Database &amp; Connectivity'!E7"/>
+    <x:hyperlink ref="D10" location="'Database &amp; Connectivity'!F7"/>
+    <x:hyperlink ref="D11" location="'Database &amp; Connectivity'!G7"/>
+    <x:hyperlink ref="D12" location="'Database &amp; Connectivity'!H7"/>
+    <x:hyperlink ref="D13" location="'Database &amp; Connectivity'!I7"/>
+    <x:hyperlink ref="D14" location="'Database &amp; Connectivity'!J7"/>
+    <x:hyperlink ref="D15" location="'Database &amp; Connectivity'!K7"/>
+    <x:hyperlink ref="D16" location="'Database &amp; Connectivity'!L7"/>
+    <x:hyperlink ref="D17" location="'Database &amp; Connectivity'!M7"/>
+    <x:hyperlink ref="D18" location="'Database &amp; Connectivity'!N7"/>
+    <x:hyperlink ref="D19" location="'Database &amp; Connectivity'!O7"/>
+    <x:hyperlink ref="D20" location="'Database &amp; Connectivity'!P7"/>
+    <x:hyperlink ref="D21" location="'Database &amp; Connectivity'!Q7"/>
+    <x:hyperlink ref="D22" location="'Database &amp; Connectivity'!R7"/>
+    <x:hyperlink ref="D23" location="'Database &amp; Connectivity'!S7"/>
+    <x:hyperlink ref="D24" location="'Database &amp; Connectivity'!T7"/>
+    <x:hyperlink ref="D25" location="'Database &amp; Connectivity'!U7"/>
+    <x:hyperlink ref="D26" location="'Database &amp; Connectivity'!V7"/>
+    <x:hyperlink ref="D27" location="'Database &amp; Connectivity'!W7"/>
+    <x:hyperlink ref="D28" location="'Database &amp; Connectivity'!X7"/>
+    <x:hyperlink ref="D29" location="'Database &amp; Connectivity'!Y7"/>
+    <x:hyperlink ref="D30" location="'Database &amp; Connectivity'!Z7"/>
+    <x:hyperlink ref="D31" location="'Database &amp; Connectivity'!AA7"/>
+    <x:hyperlink ref="D32" location="'Database &amp; Connectivity'!AB7"/>
+    <x:hyperlink ref="A6" location="'Database &amp; Connectivity'!B4"/>
+    <x:hyperlink ref="M6" location="'Power Systems'!B7"/>
+    <x:hyperlink ref="M7" location="'Power Systems'!C7"/>
+    <x:hyperlink ref="M8" location="'Power Systems'!D7"/>
+    <x:hyperlink ref="M9" location="'Power Systems'!E7"/>
+    <x:hyperlink ref="M10" location="'Power Systems'!F7"/>
+    <x:hyperlink ref="M11" location="'Power Systems'!G7"/>
+    <x:hyperlink ref="M12" location="'Power Systems'!H7"/>
+    <x:hyperlink ref="M13" location="'Power Systems'!I7"/>
+    <x:hyperlink ref="M14" location="'Power Systems'!J7"/>
+    <x:hyperlink ref="M15" location="'Power Systems'!K7"/>
+    <x:hyperlink ref="M16" location="'Power Systems'!L7"/>
+    <x:hyperlink ref="M17" location="'Power Systems'!M7"/>
+    <x:hyperlink ref="M18" location="'Power Systems'!N7"/>
+    <x:hyperlink ref="M19" location="'Power Systems'!O7"/>
+    <x:hyperlink ref="M20" location="'Power Systems'!P7"/>
+    <x:hyperlink ref="M21" location="'Power Systems'!Q7"/>
+    <x:hyperlink ref="M22" location="'Power Systems'!R7"/>
+    <x:hyperlink ref="M23" location="'Power Systems'!S7"/>
+    <x:hyperlink ref="M24" location="'Power Systems'!T7"/>
+    <x:hyperlink ref="M25" location="'Power Systems'!U7"/>
+    <x:hyperlink ref="J6" location="'Power Systems'!B4"/>
+    <x:hyperlink ref="V6" location="'Z Systems'!B7"/>
+    <x:hyperlink ref="V7" location="'Z Systems'!C7"/>
+    <x:hyperlink ref="V8" location="'Z Systems'!D7"/>
+    <x:hyperlink ref="V9" location="'Z Systems'!E7"/>
+    <x:hyperlink ref="V10" location="'Z Systems'!F7"/>
+    <x:hyperlink ref="V11" location="'Z Systems'!G7"/>
+    <x:hyperlink ref="V12" location="'Z Systems'!H7"/>
+    <x:hyperlink ref="V13" location="'Z Systems'!I7"/>
+    <x:hyperlink ref="V14" location="'Z Systems'!J7"/>
+    <x:hyperlink ref="V15" location="'Z Systems'!K7"/>
+    <x:hyperlink ref="V16" location="'Z Systems'!L7"/>
+    <x:hyperlink ref="V17" location="'Z Systems'!M7"/>
+    <x:hyperlink ref="V18" location="'Z Systems'!N7"/>
+    <x:hyperlink ref="V19" location="'Z Systems'!O7"/>
+    <x:hyperlink ref="V20" location="'Z Systems'!P7"/>
+    <x:hyperlink ref="V21" location="'Z Systems'!Q7"/>
+    <x:hyperlink ref="V22" location="'Z Systems'!R7"/>
+    <x:hyperlink ref="V23" location="'Z Systems'!S7"/>
+    <x:hyperlink ref="V24" location="'Z Systems'!T7"/>
+    <x:hyperlink ref="V25" location="'Z Systems'!U7"/>
+    <x:hyperlink ref="V26" location="'Z Systems'!V7"/>
+    <x:hyperlink ref="V27" location="'Z Systems'!W7"/>
+    <x:hyperlink ref="V28" location="'Z Systems'!X7"/>
+    <x:hyperlink ref="V29" location="'Z Systems'!Y7"/>
+    <x:hyperlink ref="V30" location="'Z Systems'!Z7"/>
+    <x:hyperlink ref="V31" location="'Z Systems'!AA7"/>
+    <x:hyperlink ref="V32" location="'Z Systems'!AB7"/>
+    <x:hyperlink ref="V33" location="'Z Systems'!AC7"/>
+    <x:hyperlink ref="V34" location="'Z Systems'!AD7"/>
+    <x:hyperlink ref="V35" location="'Z Systems'!AE7"/>
+    <x:hyperlink ref="V36" location="'Z Systems'!AF7"/>
+    <x:hyperlink ref="S6" location="'Z Systems'!B4"/>
+    <x:hyperlink ref="B6" location="'Database &amp; Connectivity'!B5"/>
+    <x:hyperlink ref="B19" location="'Database &amp; Connectivity'!O5"/>
+    <x:hyperlink ref="B31" location="'Database &amp; Connectivity'!AA5"/>
+    <x:hyperlink ref="B32" location="'Database &amp; Connectivity'!AB5"/>
+    <x:hyperlink ref="K6" location="'Power Systems'!B5"/>
+    <x:hyperlink ref="K16" location="'Power Systems'!L5"/>
+    <x:hyperlink ref="K22" location="'Power Systems'!R5"/>
+    <x:hyperlink ref="T6" location="'Z Systems'!B5"/>
+    <x:hyperlink ref="T8" location="'Z Systems'!D5"/>
+    <x:hyperlink ref="T14" location="'Z Systems'!J5"/>
+    <x:hyperlink ref="T23" location="'Z Systems'!S5"/>
+    <x:hyperlink ref="T27" location="'Z Systems'!W5"/>
+    <x:hyperlink ref="T34" location="'Z Systems'!AD5"/>
+    <x:hyperlink ref="C6" location="'Database &amp; Connectivity'!B6"/>
+    <x:hyperlink ref="C9" location="'Database &amp; Connectivity'!E6"/>
+    <x:hyperlink ref="C12" location="'Database &amp; Connectivity'!H6"/>
+    <x:hyperlink ref="C13" location="'Database &amp; Connectivity'!I6"/>
+    <x:hyperlink ref="C14" location="'Database &amp; Connectivity'!J6"/>
+    <x:hyperlink ref="C16" location="'Database &amp; Connectivity'!L6"/>
+    <x:hyperlink ref="C18" location="'Database &amp; Connectivity'!N6"/>
+    <x:hyperlink ref="C19" location="'Database &amp; Connectivity'!O6"/>
+    <x:hyperlink ref="C25" location="'Database &amp; Connectivity'!U6"/>
+    <x:hyperlink ref="C31" location="'Database &amp; Connectivity'!AA6"/>
+    <x:hyperlink ref="C32" location="'Database &amp; Connectivity'!AB6"/>
+    <x:hyperlink ref="L6" location="'Power Systems'!B6"/>
+    <x:hyperlink ref="L9" location="'Power Systems'!E6"/>
+    <x:hyperlink ref="L10" location="'Power Systems'!F6"/>
+    <x:hyperlink ref="L13" location="'Power Systems'!I6"/>
+    <x:hyperlink ref="L15" location="'Power Systems'!K6"/>
+    <x:hyperlink ref="L16" location="'Power Systems'!L6"/>
+    <x:hyperlink ref="L17" location="'Power Systems'!M6"/>
+    <x:hyperlink ref="L18" location="'Power Systems'!N6"/>
+    <x:hyperlink ref="L19" location="'Power Systems'!O6"/>
+    <x:hyperlink ref="L22" location="'Power Systems'!R6"/>
+    <x:hyperlink ref="L24" location="'Power Systems'!T6"/>
+    <x:hyperlink ref="U6" location="'Z Systems'!B6"/>
+    <x:hyperlink ref="U8" location="'Z Systems'!D6"/>
+    <x:hyperlink ref="U9" location="'Z Systems'!E6"/>
+    <x:hyperlink ref="U11" location="'Z Systems'!G6"/>
+    <x:hyperlink ref="U12" location="'Z Systems'!H6"/>
+    <x:hyperlink ref="U13" location="'Z Systems'!I6"/>
+    <x:hyperlink ref="U14" location="'Z Systems'!J6"/>
+    <x:hyperlink ref="U17" location="'Z Systems'!M6"/>
+    <x:hyperlink ref="U18" location="'Z Systems'!N6"/>
+    <x:hyperlink ref="U22" location="'Z Systems'!R6"/>
+    <x:hyperlink ref="U23" location="'Z Systems'!S6"/>
+    <x:hyperlink ref="U24" location="'Z Systems'!T6"/>
+    <x:hyperlink ref="U25" location="'Z Systems'!U6"/>
+    <x:hyperlink ref="U26" location="'Z Systems'!V6"/>
+    <x:hyperlink ref="U27" location="'Z Systems'!W6"/>
+    <x:hyperlink ref="U30" location="'Z Systems'!Z6"/>
+    <x:hyperlink ref="U32" location="'Z Systems'!AB6"/>
+    <x:hyperlink ref="U33" location="'Z Systems'!AC6"/>
+    <x:hyperlink ref="U34" location="'Z Systems'!AD6"/>
+    <x:hyperlink ref="U35" location="'Z Systems'!AE6"/>
+    <x:hyperlink ref="U36" location="'Z Systems'!AF6"/>
+  </x:hyperlinks>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>
 </file>

--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -16,17 +16,17 @@
     <sheet name="Database &amp; Connectivity" sheetId="2" r:id="rId3"/>
     <sheet name="Power Systems" sheetId="3" r:id="rId4"/>
     <sheet name="Z Systems" sheetId="4" r:id="rId5"/>
-    <sheet name="Product Count" sheetId="6" r:id="rId7"/>
+    <sheet name="Product Summary" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Product Count'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Product Summary'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
   <si>
     <t>Product Hierarchy</t>
   </si>
@@ -2025,14 +2025,29 @@
 Count</t>
   </si>
   <si>
-    <t>Active 
+    <t>Total 
 SKU 
 Count</t>
   </si>
   <si>
-    <t>Inactive 
-SKU 
-Count</t>
+    <t>Rocket
+Active 
+SKU Count</t>
+  </si>
+  <si>
+    <t>Rocket
+Inactive 
+SKU Count</t>
+  </si>
+  <si>
+    <t>Partner
+Active 
+SKU Count</t>
+  </si>
+  <si>
+    <t>Partner
+Inactive 
+SKU Count</t>
   </si>
   <si>
     <t>BU Owner</t>
@@ -2047,63 +2062,126 @@
     <t>Finance Owner</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>307</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>0</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>64</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>765</t>
   </si>
   <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -2122,148 +2200,286 @@
     <t>96</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4191</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>172</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>140</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -8124,7 +8340,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="68" zoomScaleSheetLayoutView="60" zoomScale="68" view="normal">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8138,12 +8354,13 @@
     <col min="3" max="3" width="34.14063" customWidth="1"/>
     <col min="4" max="4" width="34.42188" customWidth="1"/>
     <col min="5" max="5" width="11.85156" customWidth="1"/>
-    <col min="6" max="6" width="12.00391" customWidth="1"/>
-    <col min="7" max="7" width="13.57422" customWidth="1"/>
-    <col min="8" max="8" width="18.42188" customWidth="1"/>
-    <col min="9" max="9" width="20.71094" customWidth="1"/>
-    <col min="10" max="10" width="18.42188" customWidth="1"/>
-    <col min="11" max="11" width="19.57422" customWidth="1"/>
+    <col min="6" max="6" width="11.28125" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="11" width="15.42188" customWidth="1"/>
+    <col min="12" max="12" width="18.42188" customWidth="1"/>
+    <col min="13" max="13" width="20.71094" customWidth="1"/>
+    <col min="14" max="14" width="18.42188" customWidth="1"/>
+    <col min="15" max="15" width="19.57422" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customFormat="true" s="31">
@@ -8165,20 +8382,30 @@
       <c r="F1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>669</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="2">
@@ -8195,24 +8422,36 @@
         <v>10</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>671</v>
+        <v>48</v>
       </c>
       <c r="H2" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8230,24 +8469,36 @@
         <v>28</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>673</v>
+        <v>48</v>
       </c>
       <c r="H3" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="M3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="N3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="O3" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8265,24 +8516,36 @@
         <v>32</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>674</v>
+        <v>48</v>
       </c>
       <c r="H4" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>685</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="M4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="N4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="O4" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8300,24 +8563,36 @@
         <v>36</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>675</v>
+        <v>48</v>
       </c>
       <c r="H5" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="M5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="N5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8335,24 +8610,36 @@
         <v>42</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>677</v>
+        <v>48</v>
       </c>
       <c r="H6" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="M6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8370,24 +8657,36 @@
         <v>49</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H7" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="M7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="N7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="O7" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8405,24 +8704,36 @@
         <v>53</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>679</v>
+        <v>48</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>696</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="M8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="N8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="O8" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8440,24 +8751,36 @@
         <v>55</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>672</v>
-      </c>
       <c r="G9" s="38" t="s">
-        <v>672</v>
+        <v>48</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="M9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="N9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="O9" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8475,24 +8798,36 @@
         <v>59</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>681</v>
+        <v>48</v>
       </c>
       <c r="H10" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="M10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="N10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="O10" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8510,24 +8845,36 @@
         <v>64</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>682</v>
+        <v>48</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="M11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="N11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="O11" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8545,24 +8892,36 @@
         <v>67</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>683</v>
+        <v>48</v>
       </c>
       <c r="H12" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="M12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="O12" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8580,24 +8939,36 @@
         <v>73</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>684</v>
+        <v>48</v>
       </c>
       <c r="H13" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="M13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="N13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="O13" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8615,24 +8986,36 @@
         <v>78</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>685</v>
+        <v>48</v>
       </c>
       <c r="H14" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="M14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="N14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="O14" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8650,24 +9033,36 @@
         <v>82</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H15" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="M15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="N15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="O15" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8685,24 +9080,36 @@
         <v>87</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>686</v>
+        <v>48</v>
       </c>
       <c r="H16" s="39" t="s">
+        <v>708</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="M16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="N16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="O16" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8720,24 +9127,36 @@
         <v>93</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>687</v>
+        <v>48</v>
       </c>
       <c r="H17" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="M17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="N17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="O17" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8755,24 +9174,36 @@
         <v>98</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>688</v>
+        <v>48</v>
       </c>
       <c r="H18" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="M18" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="N18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="O18" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8790,24 +9221,36 @@
         <v>105</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>689</v>
+        <v>48</v>
       </c>
       <c r="H19" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="M19" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="N19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="O19" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8825,24 +9268,36 @@
         <v>108</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>690</v>
+        <v>48</v>
       </c>
       <c r="H20" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="M20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="N20" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="O20" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8860,24 +9315,36 @@
         <v>111</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>691</v>
+        <v>48</v>
       </c>
       <c r="H21" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="M21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="N21" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="O21" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8895,24 +9362,36 @@
         <v>118</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>692</v>
+        <v>48</v>
       </c>
       <c r="H22" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="M22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="N22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="O22" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8930,24 +9409,36 @@
         <v>120</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H23" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="M23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="N23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="O23" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8965,24 +9456,36 @@
         <v>125</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H24" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="M24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="N24" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="O24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9000,24 +9503,36 @@
         <v>129</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H25" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="M25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="N25" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="O25" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9035,24 +9550,36 @@
         <v>133</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H26" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="M26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="N26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="O26" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9070,24 +9597,36 @@
         <v>136</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>694</v>
+        <v>48</v>
       </c>
       <c r="H27" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="M27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="N27" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="O27" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9105,24 +9644,36 @@
         <v>140</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>690</v>
+        <v>48</v>
       </c>
       <c r="H28" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="M28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="N28" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="O28" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9140,24 +9691,36 @@
         <v>145</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H29" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="M29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="N29" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="O29" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9175,24 +9738,36 @@
         <v>147</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>696</v>
+        <v>48</v>
       </c>
       <c r="H30" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="M30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="N30" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="O30" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9210,24 +9785,36 @@
         <v>149</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>697</v>
+        <v>48</v>
       </c>
       <c r="H31" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="M31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="N31" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="O31" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9245,24 +9832,36 @@
         <v>151</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>698</v>
+        <v>48</v>
       </c>
       <c r="H32" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="M32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="N32" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="O32" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9280,24 +9879,36 @@
         <v>154</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>699</v>
+        <v>48</v>
       </c>
       <c r="H33" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="M33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="N33" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="O33" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9315,24 +9926,36 @@
         <v>157</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H34" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L34" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="M34" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="N34" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="O34" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9350,24 +9973,36 @@
         <v>161</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>701</v>
+        <v>48</v>
       </c>
       <c r="H35" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="M35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="N35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="O35" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9385,24 +10020,36 @@
         <v>164</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>702</v>
+        <v>48</v>
       </c>
       <c r="H36" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="L36" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="M36" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="N36" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="O36" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9420,24 +10067,36 @@
         <v>17</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>703</v>
+        <v>48</v>
       </c>
       <c r="H37" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="M37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="N37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="O37" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9455,24 +10114,36 @@
         <v>30</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>696</v>
+        <v>48</v>
       </c>
       <c r="H38" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="M38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="N38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="O38" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9490,24 +10161,36 @@
         <v>33</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>705</v>
+        <v>48</v>
       </c>
       <c r="H39" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="M39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="N39" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="O39" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9525,24 +10208,36 @@
         <v>37</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>706</v>
+        <v>48</v>
       </c>
       <c r="H40" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="M40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="N40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="O40" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9560,24 +10255,36 @@
         <v>44</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H41" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="M41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="N41" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="O41" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9595,24 +10302,36 @@
         <v>50</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>707</v>
+        <v>48</v>
       </c>
       <c r="H42" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="M42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="N42" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="O42" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9630,24 +10349,36 @@
         <v>54</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H43" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="M43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="N43" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="O43" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9665,24 +10396,36 @@
         <v>57</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>708</v>
+        <v>48</v>
       </c>
       <c r="H44" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K44" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="M44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="N44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="O44" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9700,24 +10443,36 @@
         <v>60</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>709</v>
+        <v>48</v>
       </c>
       <c r="H45" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L45" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="M45" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="N45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="O45" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9735,24 +10490,36 @@
         <v>65</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>710</v>
+        <v>48</v>
       </c>
       <c r="H46" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="M46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="N46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="O46" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9770,24 +10537,36 @@
         <v>50</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>712</v>
+        <v>48</v>
       </c>
       <c r="H47" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="M47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="N47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="O47" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9805,24 +10584,36 @@
         <v>74</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>713</v>
+        <v>48</v>
       </c>
       <c r="H48" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L48" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="M48" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="N48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="O48" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9840,24 +10631,36 @@
         <v>80</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>698</v>
+        <v>48</v>
       </c>
       <c r="H49" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="M49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="N49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="O49" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9875,24 +10678,36 @@
         <v>84</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>714</v>
+        <v>48</v>
       </c>
       <c r="H50" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="J50" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="M50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="N50" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="O50" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9910,24 +10725,36 @@
         <v>88</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>715</v>
+        <v>48</v>
       </c>
       <c r="H51" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L51" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="M51" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="N51" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="O51" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9945,24 +10772,36 @@
         <v>96</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>716</v>
+        <v>48</v>
       </c>
       <c r="H52" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="J52" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="M52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="N52" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="O52" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9980,24 +10819,36 @@
         <v>101</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>717</v>
+        <v>48</v>
       </c>
       <c r="H53" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="M53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="N53" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="O53" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10015,24 +10866,36 @@
         <v>106</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>715</v>
+        <v>48</v>
       </c>
       <c r="H54" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L54" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="M54" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="N54" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="O54" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10050,24 +10913,36 @@
         <v>109</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>719</v>
+        <v>48</v>
       </c>
       <c r="H55" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K55" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L55" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="39" t="s">
+      <c r="M55" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="N55" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="O55" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10085,24 +10960,36 @@
         <v>115</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>700</v>
+        <v>48</v>
       </c>
       <c r="H56" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J56" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="K56" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="L56" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="M56" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="N56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="O56" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10120,24 +11007,36 @@
         <v>114</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>720</v>
+        <v>48</v>
       </c>
       <c r="H57" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="L57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="M57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="N57" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="O57" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10155,24 +11054,36 @@
         <v>122</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>703</v>
+        <v>763</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>703</v>
+        <v>48</v>
       </c>
       <c r="H58" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="L58" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="M58" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J58" s="39" t="s">
+      <c r="N58" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="O58" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10190,24 +11101,36 @@
         <v>126</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>700</v>
+        <v>48</v>
       </c>
       <c r="H59" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="K59" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="L59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="M59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="N59" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="K59" s="45" t="s">
+      <c r="O59" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10225,24 +11148,36 @@
         <v>24</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>704</v>
+        <v>48</v>
       </c>
       <c r="H60" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="L60" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I60" s="39" t="s">
+      <c r="M60" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="39" t="s">
+      <c r="N60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="O60" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10260,24 +11195,36 @@
         <v>23</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>722</v>
+        <v>48</v>
       </c>
       <c r="H61" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="L61" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="M61" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="N61" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="O61" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10295,24 +11242,36 @@
         <v>34</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H62" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J62" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L62" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="M62" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="39" t="s">
+      <c r="N62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="O62" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10330,24 +11289,36 @@
         <v>40</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>675</v>
+        <v>48</v>
       </c>
       <c r="H63" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="J63" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="L63" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="39" t="s">
+      <c r="M63" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="N63" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="O63" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10365,24 +11336,36 @@
         <v>47</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>695</v>
+        <v>48</v>
       </c>
       <c r="H64" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J64" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L64" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="39" t="s">
+      <c r="M64" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="39" t="s">
+      <c r="N64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="39" t="s">
+      <c r="O64" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10400,24 +11383,36 @@
         <v>52</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>684</v>
+        <v>48</v>
       </c>
       <c r="H65" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J65" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="L65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="39" t="s">
+      <c r="M65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J65" s="39" t="s">
+      <c r="N65" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="O65" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10435,24 +11430,36 @@
         <v>51</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>725</v>
+        <v>48</v>
       </c>
       <c r="H66" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J66" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="K66" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="L66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="39" t="s">
+      <c r="M66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J66" s="39" t="s">
+      <c r="N66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="O66" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10470,24 +11477,36 @@
         <v>58</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>707</v>
+        <v>775</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>707</v>
+        <v>48</v>
       </c>
       <c r="H67" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J67" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="L67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="39" t="s">
+      <c r="M67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="39" t="s">
+      <c r="N67" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K67" s="39" t="s">
+      <c r="O67" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10505,24 +11524,36 @@
         <v>61</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>726</v>
+        <v>48</v>
       </c>
       <c r="H68" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="J68" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L68" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="39" t="s">
+      <c r="M68" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J68" s="39" t="s">
+      <c r="N68" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="39" t="s">
+      <c r="O68" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10540,24 +11571,36 @@
         <v>66</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F69" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="K69" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="G69" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="H69" s="39" t="s">
+      <c r="L69" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="M69" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="N69" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="O69" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10575,24 +11618,36 @@
         <v>70</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F70" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J70" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="K70" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="G70" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="H70" s="39" t="s">
+      <c r="L70" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="M70" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="39" t="s">
+      <c r="N70" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="O70" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10613,21 +11668,33 @@
         <v>693</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>688</v>
+        <v>48</v>
       </c>
       <c r="H71" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="J71" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L71" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="M71" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J71" s="39" t="s">
+      <c r="N71" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K71" s="39" t="s">
+      <c r="O71" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10645,24 +11712,36 @@
         <v>81</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>728</v>
+        <v>781</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>728</v>
+        <v>48</v>
       </c>
       <c r="H72" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="I72" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K72" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I72" s="39" t="s">
+      <c r="M72" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J72" s="39" t="s">
+      <c r="N72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="39" t="s">
+      <c r="O72" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10680,24 +11759,36 @@
         <v>86</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>729</v>
+        <v>48</v>
       </c>
       <c r="H73" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="J73" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L73" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="M73" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J73" s="39" t="s">
+      <c r="N73" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K73" s="39" t="s">
+      <c r="O73" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10715,24 +11806,36 @@
         <v>90</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>711</v>
+        <v>786</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>730</v>
+        <v>48</v>
       </c>
       <c r="H74" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="J74" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="K74" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L74" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="M74" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="N74" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="39" t="s">
+      <c r="O74" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10750,24 +11853,36 @@
         <v>97</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>731</v>
+        <v>48</v>
       </c>
       <c r="H75" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J75" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="L75" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="M75" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="N75" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="O75" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10785,24 +11900,36 @@
         <v>104</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H76" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J76" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L76" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="M76" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J76" s="39" t="s">
+      <c r="N76" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K76" s="39" t="s">
+      <c r="O76" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10820,24 +11947,36 @@
         <v>107</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>732</v>
+        <v>48</v>
       </c>
       <c r="H77" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L77" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="M77" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="N77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="O77" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10855,24 +11994,36 @@
         <v>110</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>733</v>
+        <v>793</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>733</v>
+        <v>48</v>
       </c>
       <c r="H78" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K78" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L78" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="M78" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="39" t="s">
+      <c r="N78" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="39" t="s">
+      <c r="O78" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10890,24 +12041,36 @@
         <v>117</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>734</v>
+        <v>794</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>734</v>
+        <v>48</v>
       </c>
       <c r="H79" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="K79" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="L79" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="M79" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="N79" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="O79" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10925,24 +12088,36 @@
         <v>119</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H80" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J80" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K80" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I80" s="39" t="s">
+      <c r="M80" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J80" s="39" t="s">
+      <c r="N80" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K80" s="39" t="s">
+      <c r="O80" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10960,24 +12135,36 @@
         <v>124</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>735</v>
+        <v>795</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>735</v>
+        <v>48</v>
       </c>
       <c r="H81" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>797</v>
+      </c>
+      <c r="K81" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="L81" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="M81" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="N81" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="O81" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10995,24 +12182,36 @@
         <v>127</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>703</v>
+        <v>759</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>736</v>
+        <v>799</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>736</v>
+        <v>48</v>
       </c>
       <c r="H82" s="39" t="s">
+        <v>800</v>
+      </c>
+      <c r="I82" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="J82" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K82" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I82" s="39" t="s">
+      <c r="M82" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J82" s="39" t="s">
+      <c r="N82" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K82" s="39" t="s">
+      <c r="O82" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11030,24 +12229,36 @@
         <v>132</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H83" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I83" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J83" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I83" s="39" t="s">
+      <c r="M83" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="N83" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="39" t="s">
+      <c r="O83" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11065,24 +12276,36 @@
         <v>134</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>703</v>
+        <v>802</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>703</v>
+        <v>48</v>
       </c>
       <c r="H84" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="I84" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="K84" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L84" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I84" s="39" t="s">
+      <c r="M84" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="N84" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="39" t="s">
+      <c r="O84" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11100,24 +12323,36 @@
         <v>138</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>737</v>
+        <v>48</v>
       </c>
       <c r="H85" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="I85" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K85" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L85" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="M85" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="N85" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="39" t="s">
+      <c r="O85" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11135,24 +12370,36 @@
         <v>143</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>678</v>
+        <v>48</v>
       </c>
       <c r="H86" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I86" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J86" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K86" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="39" t="s">
+      <c r="M86" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="N86" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K86" s="39" t="s">
+      <c r="O86" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11170,24 +12417,36 @@
         <v>146</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>738</v>
+        <v>699</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>738</v>
+        <v>48</v>
       </c>
       <c r="H87" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="I87" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J87" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="K87" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L87" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I87" s="39" t="s">
+      <c r="M87" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J87" s="39" t="s">
+      <c r="N87" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K87" s="39" t="s">
+      <c r="O87" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11205,24 +12464,36 @@
         <v>148</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F88" s="38" t="s">
         <v>693</v>
       </c>
       <c r="G88" s="38" t="s">
-        <v>693</v>
+        <v>48</v>
       </c>
       <c r="H88" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="I88" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J88" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="K88" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I88" s="39" t="s">
+      <c r="M88" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J88" s="39" t="s">
+      <c r="N88" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K88" s="39" t="s">
+      <c r="O88" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11240,24 +12511,36 @@
         <v>150</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>739</v>
+        <v>804</v>
       </c>
       <c r="G89" s="38" t="s">
-        <v>739</v>
+        <v>48</v>
       </c>
       <c r="H89" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="I89" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K89" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L89" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="M89" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="N89" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K89" s="39" t="s">
+      <c r="O89" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11275,24 +12558,36 @@
         <v>152</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>740</v>
+        <v>807</v>
       </c>
       <c r="G90" s="38" t="s">
-        <v>740</v>
+        <v>48</v>
       </c>
       <c r="H90" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="I90" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="J90" s="39" t="s">
+        <v>808</v>
+      </c>
+      <c r="K90" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="L90" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I90" s="39" t="s">
+      <c r="M90" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J90" s="39" t="s">
+      <c r="N90" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="K90" s="39" t="s">
+      <c r="O90" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11310,24 +12605,36 @@
         <v>155</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="G91" s="38" t="s">
-        <v>741</v>
+        <v>48</v>
       </c>
       <c r="H91" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I91" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J91" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="K91" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L91" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I91" s="39" t="s">
+      <c r="M91" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J91" s="39" t="s">
+      <c r="N91" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="K91" s="39" t="s">
+      <c r="O91" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11345,24 +12652,36 @@
         <v>160</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F92" s="38" t="s">
         <v>693</v>
       </c>
       <c r="G92" s="38" t="s">
-        <v>693</v>
+        <v>48</v>
       </c>
       <c r="H92" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="I92" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J92" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L92" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I92" s="39" t="s">
+      <c r="M92" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J92" s="39" t="s">
+      <c r="N92" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K92" s="39" t="s">
+      <c r="O92" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11380,24 +12699,36 @@
         <v>163</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>718</v>
+        <v>48</v>
       </c>
       <c r="H93" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I93" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="J93" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K93" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L93" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="M93" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J93" s="39" t="s">
+      <c r="N93" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="39" t="s">
+      <c r="O93" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11415,24 +12746,36 @@
         <v>168</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>722</v>
+        <v>48</v>
       </c>
       <c r="H94" s="39" t="s">
+        <v>811</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="J94" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="K94" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L94" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I94" s="39" t="s">
+      <c r="M94" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J94" s="39" t="s">
+      <c r="N94" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="39" t="s">
+      <c r="O94" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11450,24 +12793,36 @@
         <v>170</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>742</v>
+        <v>48</v>
       </c>
       <c r="H95" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="J95" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="K95" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="L95" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I95" s="39" t="s">
+      <c r="M95" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J95" s="39" t="s">
+      <c r="N95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K95" s="39" t="s">
+      <c r="O95" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11485,29 +12840,41 @@
         <v>171</v>
       </c>
       <c r="E96" s="44" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>707</v>
+        <v>48</v>
       </c>
       <c r="H96" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="I96" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="K96" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="L96" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="I96" s="45" t="s">
+      <c r="M96" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="J96" s="45" t="s">
+      <c r="N96" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="45" t="s">
+      <c r="O96" s="45" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:O1"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="1" fitToWidth="1" fitToHeight="1" horizontalDpi="90" verticalDpi="90" copies="1" r:id="rId1"/>
 </worksheet>

--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -2742,7 +2742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2836,6 +2836,9 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2852,6 +2855,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -8427,31 +8433,31 @@
       <c r="F2" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>675</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8474,31 +8480,31 @@
       <c r="F3" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L3" s="39" t="s">
+      <c r="J3" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8521,31 +8527,31 @@
       <c r="F4" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>685</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L4" s="39" t="s">
+      <c r="J4" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8568,31 +8574,31 @@
       <c r="F5" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L5" s="39" t="s">
+      <c r="J5" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8615,31 +8621,31 @@
       <c r="F6" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L6" s="39" t="s">
+      <c r="J6" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8662,31 +8668,31 @@
       <c r="F7" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L7" s="39" t="s">
+      <c r="H7" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8709,31 +8715,31 @@
       <c r="F8" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L8" s="39" t="s">
+      <c r="J8" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8756,31 +8762,31 @@
       <c r="F9" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="J9" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L9" s="39" t="s">
+      <c r="J9" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8803,31 +8809,31 @@
       <c r="F10" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L10" s="39" t="s">
+      <c r="J10" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8850,31 +8856,31 @@
       <c r="F11" s="38" t="s">
         <v>700</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L11" s="39" t="s">
+      <c r="J11" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8897,31 +8903,31 @@
       <c r="F12" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L12" s="39" t="s">
+      <c r="J12" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8944,31 +8950,31 @@
       <c r="F13" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L13" s="39" t="s">
+      <c r="J13" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8991,31 +8997,31 @@
       <c r="F14" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L14" s="39" t="s">
+      <c r="J14" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9038,31 +9044,31 @@
       <c r="F15" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L15" s="39" t="s">
+      <c r="H15" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9085,31 +9091,31 @@
       <c r="F16" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L16" s="39" t="s">
+      <c r="J16" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9132,31 +9138,31 @@
       <c r="F17" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L17" s="39" t="s">
+      <c r="I17" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L17" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9179,31 +9185,31 @@
       <c r="F18" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L18" s="39" t="s">
+      <c r="J18" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L18" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9226,31 +9232,31 @@
       <c r="F19" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L19" s="39" t="s">
+      <c r="I19" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L19" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9273,31 +9279,31 @@
       <c r="F20" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L20" s="39" t="s">
+      <c r="I20" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L20" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9320,31 +9326,31 @@
       <c r="F21" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="I21" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L21" s="39" t="s">
+      <c r="I21" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9367,31 +9373,31 @@
       <c r="F22" s="38" t="s">
         <v>716</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L22" s="39" t="s">
+      <c r="I22" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9414,31 +9420,31 @@
       <c r="F23" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L23" s="39" t="s">
+      <c r="H23" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L23" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9461,31 +9467,31 @@
       <c r="F24" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L24" s="39" t="s">
+      <c r="H24" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L24" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9508,31 +9514,31 @@
       <c r="F25" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L25" s="39" t="s">
+      <c r="H25" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L25" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9555,31 +9561,31 @@
       <c r="F26" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L26" s="39" t="s">
+      <c r="H26" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9602,31 +9608,31 @@
       <c r="F27" s="38" t="s">
         <v>718</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="J27" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L27" s="39" t="s">
+      <c r="J27" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L27" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9649,31 +9655,31 @@
       <c r="F28" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="J28" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L28" s="39" t="s">
+      <c r="J28" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L28" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9696,31 +9702,31 @@
       <c r="F29" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L29" s="39" t="s">
+      <c r="H29" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L29" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9743,31 +9749,31 @@
       <c r="F30" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I30" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L30" s="39" t="s">
+      <c r="I30" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L30" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9790,31 +9796,31 @@
       <c r="F31" s="38" t="s">
         <v>721</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="J31" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L31" s="39" t="s">
+      <c r="J31" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L31" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9837,31 +9843,31 @@
       <c r="F32" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="J32" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L32" s="39" t="s">
+      <c r="J32" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9884,31 +9890,31 @@
       <c r="F33" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="I33" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L33" s="39" t="s">
+      <c r="I33" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L33" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9931,31 +9937,31 @@
       <c r="F34" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L34" s="39" t="s">
+      <c r="H34" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L34" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9978,78 +9984,78 @@
       <c r="F35" s="38" t="s">
         <v>728</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="40" t="s">
         <v>729</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="40" t="s">
         <v>729</v>
       </c>
-      <c r="J35" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L35" s="39" t="s">
+      <c r="J35" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L35" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="N35" s="39" t="s">
+      <c r="N35" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="45" t="s">
         <v>717</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="I36" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="J36" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="K36" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="L36" s="45" t="s">
+      <c r="I36" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="L36" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="M36" s="45" t="s">
+      <c r="M36" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="45" t="s">
+      <c r="N36" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="47" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10072,31 +10078,31 @@
       <c r="F37" s="38" t="s">
         <v>731</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="J37" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L37" s="39" t="s">
+      <c r="J37" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L37" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="39" t="s">
+      <c r="N37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10119,31 +10125,31 @@
       <c r="F38" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="J38" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L38" s="39" t="s">
+      <c r="J38" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L38" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="39" t="s">
+      <c r="O38" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10166,31 +10172,31 @@
       <c r="F39" s="38" t="s">
         <v>734</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="J39" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K39" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L39" s="39" t="s">
+      <c r="J39" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L39" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="39" t="s">
+      <c r="N39" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10213,31 +10219,31 @@
       <c r="F40" s="38" t="s">
         <v>722</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="40" t="s">
         <v>698</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="K40" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L40" s="39" t="s">
+      <c r="K40" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L40" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10260,31 +10266,31 @@
       <c r="F41" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L41" s="39" t="s">
+      <c r="H41" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L41" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10307,31 +10313,31 @@
       <c r="F42" s="38" t="s">
         <v>678</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="J42" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L42" s="39" t="s">
+      <c r="J42" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L42" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10354,31 +10360,31 @@
       <c r="F43" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J43" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K43" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L43" s="39" t="s">
+      <c r="H43" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L43" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="N43" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10401,31 +10407,31 @@
       <c r="F44" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="40" t="s">
         <v>698</v>
       </c>
-      <c r="J44" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L44" s="39" t="s">
+      <c r="J44" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10448,31 +10454,31 @@
       <c r="F45" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="I45" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L45" s="39" t="s">
+      <c r="I45" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L45" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10495,31 +10501,31 @@
       <c r="F46" s="38" t="s">
         <v>723</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I46" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J46" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L46" s="39" t="s">
+      <c r="I46" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J46" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10542,31 +10548,31 @@
       <c r="F47" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="J47" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L47" s="39" t="s">
+      <c r="J47" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L47" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="39" t="s">
+      <c r="N47" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10589,31 +10595,31 @@
       <c r="F48" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="40" t="s">
         <v>743</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="J48" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L48" s="39" t="s">
+      <c r="J48" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L48" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="39" t="s">
+      <c r="N48" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10636,31 +10642,31 @@
       <c r="F49" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L49" s="39" t="s">
+      <c r="I49" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L49" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N49" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10683,31 +10689,31 @@
       <c r="F50" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="40" t="s">
         <v>747</v>
       </c>
-      <c r="J50" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L50" s="39" t="s">
+      <c r="J50" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L50" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="39" t="s">
+      <c r="N50" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10730,31 +10736,31 @@
       <c r="F51" s="38" t="s">
         <v>748</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="J51" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K51" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L51" s="39" t="s">
+      <c r="J51" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K51" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L51" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="N51" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10777,31 +10783,31 @@
       <c r="F52" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="40" t="s">
         <v>752</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="K52" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L52" s="39" t="s">
+      <c r="K52" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L52" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="N52" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10824,31 +10830,31 @@
       <c r="F53" s="38" t="s">
         <v>756</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="40" t="s">
         <v>758</v>
       </c>
-      <c r="J53" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L53" s="39" t="s">
+      <c r="J53" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="39" t="s">
+      <c r="N53" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10871,31 +10877,31 @@
       <c r="F54" s="38" t="s">
         <v>748</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="40" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="J54" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K54" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L54" s="39" t="s">
+      <c r="J54" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L54" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="39" t="s">
+      <c r="N54" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10918,31 +10924,31 @@
       <c r="F55" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="39" t="s">
+      <c r="H55" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="I55" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J55" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L55" s="39" t="s">
+      <c r="I55" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="39" t="s">
+      <c r="N55" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O55" s="39" t="s">
+      <c r="O55" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10965,31 +10971,31 @@
       <c r="F56" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="I56" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J56" s="39" t="s">
+      <c r="I56" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J56" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="N56" s="39" t="s">
+      <c r="N56" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O56" s="39" t="s">
+      <c r="O56" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11012,31 +11018,31 @@
       <c r="F57" s="38" t="s">
         <v>760</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="I57" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J57" s="39" t="s">
+      <c r="I57" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J57" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11059,78 +11065,78 @@
       <c r="F58" s="38" t="s">
         <v>763</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="I58" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J58" s="39" t="s">
+      <c r="I58" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J58" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="N58" s="39" t="s">
+      <c r="N58" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O58" s="39" t="s">
+      <c r="O58" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="45" t="s">
         <v>673</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="45" t="s">
         <v>765</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="H59" s="47" t="s">
         <v>701</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="47" t="s">
         <v>682</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="47" t="s">
         <v>744</v>
       </c>
-      <c r="K59" s="45" t="s">
+      <c r="K59" s="47" t="s">
         <v>697</v>
       </c>
-      <c r="L59" s="45" t="s">
+      <c r="L59" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="M59" s="45" t="s">
+      <c r="M59" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="N59" s="45" t="s">
+      <c r="N59" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="O59" s="45" t="s">
+      <c r="O59" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11153,31 +11159,31 @@
       <c r="F60" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I60" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J60" s="39" t="s">
+      <c r="I60" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J60" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N60" s="39" t="s">
+      <c r="N60" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="39" t="s">
+      <c r="O60" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11200,31 +11206,31 @@
       <c r="F61" s="38" t="s">
         <v>768</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G61" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="39" t="s">
+      <c r="H61" s="40" t="s">
         <v>769</v>
       </c>
-      <c r="I61" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J61" s="39" t="s">
+      <c r="I61" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J61" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N61" s="39" t="s">
+      <c r="N61" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11247,31 +11253,31 @@
       <c r="F62" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G62" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J62" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L62" s="39" t="s">
+      <c r="H62" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J62" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K62" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L62" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N62" s="39" t="s">
+      <c r="N62" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="O62" s="39" t="s">
+      <c r="O62" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11294,31 +11300,31 @@
       <c r="F63" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="39" t="s">
+      <c r="H63" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I63" s="39" t="s">
+      <c r="I63" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="J63" s="39" t="s">
+      <c r="J63" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N63" s="39" t="s">
+      <c r="N63" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O63" s="39" t="s">
+      <c r="O63" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11341,31 +11347,31 @@
       <c r="F64" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I64" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J64" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L64" s="39" t="s">
+      <c r="I64" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L64" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N64" s="39" t="s">
+      <c r="N64" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11388,31 +11394,31 @@
       <c r="F65" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J65" s="39" t="s">
+      <c r="I65" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J65" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N65" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11435,31 +11441,31 @@
       <c r="F66" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="G66" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="39" t="s">
+      <c r="H66" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="I66" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J66" s="39" t="s">
+      <c r="I66" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J66" s="40" t="s">
         <v>774</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="K66" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N66" s="39" t="s">
+      <c r="N66" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O66" s="39" t="s">
+      <c r="O66" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11482,31 +11488,31 @@
       <c r="F67" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="H67" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J67" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K67" s="39" t="s">
+      <c r="I67" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K67" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="L67" s="39" t="s">
+      <c r="L67" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M67" s="39" t="s">
+      <c r="M67" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N67" s="39" t="s">
+      <c r="N67" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O67" s="39" t="s">
+      <c r="O67" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11529,31 +11535,31 @@
       <c r="F68" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H68" s="39" t="s">
+      <c r="H68" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="I68" s="39" t="s">
+      <c r="I68" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="J68" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K68" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L68" s="39" t="s">
+      <c r="J68" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L68" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="39" t="s">
+      <c r="N68" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11576,31 +11582,31 @@
       <c r="F69" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="I69" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J69" s="39" t="s">
+      <c r="I69" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J69" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="L69" s="39" t="s">
+      <c r="L69" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M69" s="39" t="s">
+      <c r="M69" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N69" s="39" t="s">
+      <c r="N69" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O69" s="39" t="s">
+      <c r="O69" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11623,31 +11629,31 @@
       <c r="F70" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="I70" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J70" s="39" t="s">
+      <c r="I70" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J70" s="40" t="s">
         <v>779</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O70" s="39" t="s">
+      <c r="O70" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11670,31 +11676,31 @@
       <c r="F71" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="40" t="s">
         <v>780</v>
       </c>
-      <c r="J71" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K71" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L71" s="39" t="s">
+      <c r="J71" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K71" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L71" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M71" s="39" t="s">
+      <c r="M71" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N71" s="39" t="s">
+      <c r="N71" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O71" s="39" t="s">
+      <c r="O71" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11717,31 +11723,31 @@
       <c r="F72" s="38" t="s">
         <v>781</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H72" s="39" t="s">
+      <c r="H72" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="I72" s="39" t="s">
+      <c r="I72" s="40" t="s">
         <v>783</v>
       </c>
-      <c r="J72" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K72" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L72" s="39" t="s">
+      <c r="J72" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L72" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M72" s="39" t="s">
+      <c r="M72" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N72" s="39" t="s">
+      <c r="N72" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O72" s="39" t="s">
+      <c r="O72" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11764,31 +11770,31 @@
       <c r="F73" s="38" t="s">
         <v>784</v>
       </c>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="I73" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="J73" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K73" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L73" s="39" t="s">
+      <c r="J73" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K73" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L73" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M73" s="39" t="s">
+      <c r="M73" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N73" s="39" t="s">
+      <c r="N73" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O73" s="39" t="s">
+      <c r="O73" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11811,31 +11817,31 @@
       <c r="F74" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="H74" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J74" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="K74" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L74" s="39" t="s">
+      <c r="K74" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L74" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N74" s="39" t="s">
+      <c r="N74" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11858,31 +11864,31 @@
       <c r="F75" s="38" t="s">
         <v>788</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="I75" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J75" s="39" t="s">
+      <c r="I75" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J75" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N75" s="39" t="s">
+      <c r="N75" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O75" s="39" t="s">
+      <c r="O75" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11905,31 +11911,31 @@
       <c r="F76" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I76" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J76" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K76" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L76" s="39" t="s">
+      <c r="H76" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I76" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J76" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L76" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N76" s="39" t="s">
+      <c r="N76" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O76" s="39" t="s">
+      <c r="O76" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11952,31 +11958,31 @@
       <c r="F77" s="38" t="s">
         <v>792</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="J77" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K77" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L77" s="39" t="s">
+      <c r="J77" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L77" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N77" s="39" t="s">
+      <c r="N77" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11999,31 +12005,31 @@
       <c r="F78" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H78" s="39" t="s">
+      <c r="H78" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="J78" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K78" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L78" s="39" t="s">
+      <c r="J78" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L78" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M78" s="39" t="s">
+      <c r="M78" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N78" s="39" t="s">
+      <c r="N78" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O78" s="39" t="s">
+      <c r="O78" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12046,31 +12052,31 @@
       <c r="F79" s="38" t="s">
         <v>794</v>
       </c>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12093,31 +12099,31 @@
       <c r="F80" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H80" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I80" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J80" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K80" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L80" s="39" t="s">
+      <c r="H80" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I80" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J80" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K80" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M80" s="39" t="s">
+      <c r="M80" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N80" s="39" t="s">
+      <c r="N80" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O80" s="39" t="s">
+      <c r="O80" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12140,31 +12146,31 @@
       <c r="F81" s="38" t="s">
         <v>795</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="J81" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="K81" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N81" s="39" t="s">
+      <c r="N81" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O81" s="39" t="s">
+      <c r="O81" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12187,31 +12193,31 @@
       <c r="F82" s="38" t="s">
         <v>799</v>
       </c>
-      <c r="G82" s="38" t="s">
+      <c r="G82" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H82" s="39" t="s">
+      <c r="H82" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="I82" s="39" t="s">
+      <c r="I82" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="J82" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K82" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L82" s="39" t="s">
+      <c r="J82" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="39" t="s">
+      <c r="M82" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N82" s="39" t="s">
+      <c r="N82" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O82" s="39" t="s">
+      <c r="O82" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12234,31 +12240,31 @@
       <c r="F83" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G83" s="38" t="s">
+      <c r="G83" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H83" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I83" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L83" s="39" t="s">
+      <c r="H83" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I83" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J83" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M83" s="39" t="s">
+      <c r="M83" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N83" s="39" t="s">
+      <c r="N83" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O83" s="39" t="s">
+      <c r="O83" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12281,31 +12287,31 @@
       <c r="F84" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="I84" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J84" s="39" t="s">
+      <c r="I84" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="K84" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L84" s="39" t="s">
+      <c r="K84" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L84" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M84" s="39" t="s">
+      <c r="M84" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N84" s="39" t="s">
+      <c r="N84" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O84" s="39" t="s">
+      <c r="O84" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12328,31 +12334,31 @@
       <c r="F85" s="38" t="s">
         <v>803</v>
       </c>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="I85" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K85" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L85" s="39" t="s">
+      <c r="J85" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L85" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M85" s="39" t="s">
+      <c r="M85" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="N85" s="39" t="s">
+      <c r="N85" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O85" s="39" t="s">
+      <c r="O85" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12375,31 +12381,31 @@
       <c r="F86" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H86" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I86" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J86" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K86" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L86" s="39" t="s">
+      <c r="H86" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="I86" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J86" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M86" s="39" t="s">
+      <c r="M86" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N86" s="39" t="s">
+      <c r="N86" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="O86" s="39" t="s">
+      <c r="O86" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12422,31 +12428,31 @@
       <c r="F87" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="I87" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J87" s="39" t="s">
+      <c r="I87" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J87" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K87" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L87" s="39" t="s">
+      <c r="K87" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L87" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M87" s="39" t="s">
+      <c r="M87" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N87" s="39" t="s">
+      <c r="N87" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="O87" s="39" t="s">
+      <c r="O87" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12469,31 +12475,31 @@
       <c r="F88" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H88" s="39" t="s">
+      <c r="H88" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="I88" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J88" s="39" t="s">
+      <c r="I88" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J88" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K88" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L88" s="39" t="s">
+      <c r="K88" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M88" s="39" t="s">
+      <c r="M88" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N88" s="39" t="s">
+      <c r="N88" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="O88" s="39" t="s">
+      <c r="O88" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12516,31 +12522,31 @@
       <c r="F89" s="38" t="s">
         <v>804</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H89" s="39" t="s">
+      <c r="H89" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="I89" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K89" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L89" s="39" t="s">
+      <c r="J89" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L89" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M89" s="39" t="s">
+      <c r="M89" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N89" s="39" t="s">
+      <c r="N89" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="O89" s="39" t="s">
+      <c r="O89" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12563,31 +12569,31 @@
       <c r="F90" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H90" s="39" t="s">
+      <c r="H90" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="I90" s="39" t="s">
+      <c r="I90" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="J90" s="39" t="s">
+      <c r="J90" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="K90" s="39" t="s">
+      <c r="K90" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M90" s="39" t="s">
+      <c r="M90" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N90" s="39" t="s">
+      <c r="N90" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="O90" s="39" t="s">
+      <c r="O90" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12610,31 +12616,31 @@
       <c r="F91" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H91" s="39" t="s">
+      <c r="H91" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I91" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J91" s="39" t="s">
+      <c r="I91" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J91" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="K91" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L91" s="39" t="s">
+      <c r="K91" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L91" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M91" s="39" t="s">
+      <c r="M91" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N91" s="39" t="s">
+      <c r="N91" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="O91" s="39" t="s">
+      <c r="O91" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12657,31 +12663,31 @@
       <c r="F92" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H92" s="39" t="s">
+      <c r="H92" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="I92" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J92" s="39" t="s">
+      <c r="I92" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J92" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K92" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L92" s="39" t="s">
+      <c r="K92" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L92" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M92" s="39" t="s">
+      <c r="M92" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N92" s="39" t="s">
+      <c r="N92" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="O92" s="39" t="s">
+      <c r="O92" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12704,31 +12710,31 @@
       <c r="F93" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="J93" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K93" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L93" s="39" t="s">
+      <c r="J93" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L93" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M93" s="39" t="s">
+      <c r="M93" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N93" s="39" t="s">
+      <c r="N93" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="O93" s="39" t="s">
+      <c r="O93" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12751,31 +12757,31 @@
       <c r="F94" s="38" t="s">
         <v>810</v>
       </c>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H94" s="39" t="s">
+      <c r="H94" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="I94" s="39" t="s">
+      <c r="I94" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="J94" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="K94" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L94" s="39" t="s">
+      <c r="J94" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="K94" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L94" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M94" s="39" t="s">
+      <c r="M94" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="N94" s="39" t="s">
+      <c r="N94" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O94" s="39" t="s">
+      <c r="O94" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12798,78 +12804,78 @@
       <c r="F95" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="39" t="s">
+      <c r="H95" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I95" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J95" s="39" t="s">
+      <c r="I95" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="J95" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="K95" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="L95" s="39" t="s">
+      <c r="K95" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="L95" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M95" s="39" t="s">
+      <c r="M95" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="N95" s="39" t="s">
+      <c r="N95" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O95" s="39" t="s">
+      <c r="O95" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="45" t="s">
         <v>682</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="45" t="s">
         <v>713</v>
       </c>
-      <c r="G96" s="44" t="s">
+      <c r="G96" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H96" s="45" t="s">
+      <c r="H96" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="I96" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="J96" s="45" t="s">
+      <c r="I96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="K96" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="L96" s="45" t="s">
+      <c r="K96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="L96" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="M96" s="45" t="s">
+      <c r="M96" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="N96" s="45" t="s">
+      <c r="N96" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O96" s="45" t="s">
+      <c r="O96" s="47" t="s">
         <v>27</v>
       </c>
     </row>

--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -2663,7 +2663,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2700,6 +2700,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2DCDB"/>
       </patternFill>
     </fill>
   </fills>
@@ -2742,7 +2747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2836,10 +2841,13 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -2857,10 +2865,13 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8439,25 +8450,25 @@
       <c r="H2" s="40" t="s">
         <v>675</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>676</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K2" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8486,25 +8497,25 @@
       <c r="H3" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>681</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8533,25 +8544,25 @@
       <c r="H4" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>685</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8580,25 +8591,25 @@
       <c r="H5" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>688</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L5" s="40" t="s">
+      <c r="K5" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8627,25 +8638,25 @@
       <c r="H6" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="41" t="s">
         <v>692</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L6" s="40" t="s">
+      <c r="K6" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8674,25 +8685,25 @@
       <c r="H7" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8721,25 +8732,25 @@
       <c r="H8" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="41" t="s">
         <v>696</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K8" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L8" s="40" t="s">
+      <c r="K8" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8768,25 +8779,25 @@
       <c r="H9" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="41" t="s">
         <v>697</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L9" s="40" t="s">
+      <c r="K9" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8815,25 +8826,25 @@
       <c r="H10" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="41" t="s">
         <v>699</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L10" s="40" t="s">
+      <c r="K10" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8862,25 +8873,25 @@
       <c r="H11" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="41" t="s">
         <v>678</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K11" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L11" s="40" t="s">
+      <c r="K11" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8909,25 +8920,25 @@
       <c r="H12" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="41" t="s">
         <v>686</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L12" s="40" t="s">
+      <c r="K12" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8956,25 +8967,25 @@
       <c r="H13" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="41" t="s">
         <v>704</v>
       </c>
       <c r="J13" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K13" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L13" s="40" t="s">
+      <c r="K13" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9003,25 +9014,25 @@
       <c r="H14" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="41" t="s">
         <v>702</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K14" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L14" s="40" t="s">
+      <c r="K14" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9050,25 +9061,25 @@
       <c r="H15" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K15" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L15" s="40" t="s">
+      <c r="K15" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9097,25 +9108,25 @@
       <c r="H16" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="41" t="s">
         <v>709</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K16" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L16" s="40" t="s">
+      <c r="K16" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9144,25 +9155,25 @@
       <c r="H17" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J17" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K17" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L17" s="40" t="s">
+      <c r="K17" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="40" t="s">
+      <c r="N17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9191,25 +9202,25 @@
       <c r="H18" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="41" t="s">
         <v>697</v>
       </c>
       <c r="J18" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K18" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L18" s="40" t="s">
+      <c r="K18" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9238,25 +9249,25 @@
       <c r="H19" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J19" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K19" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L19" s="40" t="s">
+      <c r="K19" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="40" t="s">
+      <c r="N19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="40" t="s">
+      <c r="O19" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9285,25 +9296,25 @@
       <c r="H20" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K20" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L20" s="40" t="s">
+      <c r="K20" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9332,25 +9343,25 @@
       <c r="H21" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K21" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L21" s="40" t="s">
+      <c r="K21" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9379,25 +9390,25 @@
       <c r="H22" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J22" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K22" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L22" s="40" t="s">
+      <c r="K22" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9426,25 +9437,25 @@
       <c r="H23" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J23" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K23" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L23" s="40" t="s">
+      <c r="K23" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9473,25 +9484,25 @@
       <c r="H24" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J24" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L24" s="40" t="s">
+      <c r="K24" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9520,25 +9531,25 @@
       <c r="H25" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J25" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K25" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L25" s="40" t="s">
+      <c r="K25" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9567,25 +9578,25 @@
       <c r="H26" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K26" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L26" s="40" t="s">
+      <c r="K26" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O26" s="40" t="s">
+      <c r="O26" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9614,25 +9625,25 @@
       <c r="H27" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="41" t="s">
         <v>697</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K27" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L27" s="40" t="s">
+      <c r="K27" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9661,25 +9672,25 @@
       <c r="H28" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="41" t="s">
         <v>697</v>
       </c>
       <c r="J28" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K28" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L28" s="40" t="s">
+      <c r="K28" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9708,25 +9719,25 @@
       <c r="H29" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J29" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K29" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L29" s="40" t="s">
+      <c r="K29" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9755,25 +9766,25 @@
       <c r="H30" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J30" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K30" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L30" s="40" t="s">
+      <c r="K30" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9802,25 +9813,25 @@
       <c r="H31" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="41" t="s">
         <v>723</v>
       </c>
       <c r="J31" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K31" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L31" s="40" t="s">
+      <c r="K31" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9849,25 +9860,25 @@
       <c r="H32" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="41" t="s">
         <v>673</v>
       </c>
       <c r="J32" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K32" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L32" s="40" t="s">
+      <c r="K32" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="40" t="s">
+      <c r="M32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="N32" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9896,25 +9907,25 @@
       <c r="H33" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J33" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K33" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L33" s="40" t="s">
+      <c r="K33" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="40" t="s">
+      <c r="M33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N33" s="40" t="s">
+      <c r="N33" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9943,25 +9954,25 @@
       <c r="H34" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J34" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K34" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L34" s="40" t="s">
+      <c r="K34" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L34" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="N34" s="40" t="s">
+      <c r="N34" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9990,60 +10001,60 @@
       <c r="H35" s="40" t="s">
         <v>729</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="41" t="s">
         <v>729</v>
       </c>
       <c r="J35" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K35" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L35" s="40" t="s">
+      <c r="K35" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="N35" s="40" t="s">
+      <c r="N35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="O35" s="40" t="s">
+      <c r="O35" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="47" t="s">
+      <c r="H36" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="I36" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="K36" s="47" t="s">
+      <c r="I36" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="K36" s="49" t="s">
         <v>677</v>
       </c>
       <c r="L36" s="47" t="s">
@@ -10084,25 +10095,25 @@
       <c r="H37" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="41" t="s">
         <v>680</v>
       </c>
       <c r="J37" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K37" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L37" s="40" t="s">
+      <c r="K37" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="40" t="s">
+      <c r="N37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O37" s="40" t="s">
+      <c r="O37" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10131,25 +10142,25 @@
       <c r="H38" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="41" t="s">
         <v>724</v>
       </c>
       <c r="J38" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K38" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L38" s="40" t="s">
+      <c r="K38" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="40" t="s">
+      <c r="N38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10178,25 +10189,25 @@
       <c r="H39" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="41" t="s">
         <v>736</v>
       </c>
       <c r="J39" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K39" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L39" s="40" t="s">
+      <c r="K39" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="40" t="s">
+      <c r="N39" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O39" s="40" t="s">
+      <c r="O39" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10225,25 +10236,25 @@
       <c r="H40" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="41" t="s">
         <v>698</v>
       </c>
       <c r="J40" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="K40" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L40" s="40" t="s">
+      <c r="K40" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M40" s="40" t="s">
+      <c r="M40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="40" t="s">
+      <c r="N40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="40" t="s">
+      <c r="O40" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10272,25 +10283,25 @@
       <c r="H41" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J41" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L41" s="40" t="s">
+      <c r="K41" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="40" t="s">
+      <c r="M41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="40" t="s">
+      <c r="O41" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10319,25 +10330,25 @@
       <c r="H42" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="41" t="s">
         <v>680</v>
       </c>
       <c r="J42" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K42" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L42" s="40" t="s">
+      <c r="K42" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="40" t="s">
+      <c r="M42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="40" t="s">
+      <c r="N42" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="40" t="s">
+      <c r="O42" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10366,25 +10377,25 @@
       <c r="H43" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J43" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K43" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L43" s="40" t="s">
+      <c r="K43" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N43" s="40" t="s">
+      <c r="N43" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="40" t="s">
+      <c r="O43" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10413,25 +10424,25 @@
       <c r="H44" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="41" t="s">
         <v>698</v>
       </c>
       <c r="J44" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K44" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L44" s="40" t="s">
+      <c r="K44" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="40" t="s">
+      <c r="M44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="40" t="s">
+      <c r="N44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O44" s="40" t="s">
+      <c r="O44" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10460,25 +10471,25 @@
       <c r="H45" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J45" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K45" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L45" s="40" t="s">
+      <c r="K45" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L45" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="40" t="s">
+      <c r="M45" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="40" t="s">
+      <c r="N45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O45" s="40" t="s">
+      <c r="O45" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10507,25 +10518,25 @@
       <c r="H46" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J46" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K46" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L46" s="40" t="s">
+      <c r="K46" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="40" t="s">
+      <c r="M46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N46" s="40" t="s">
+      <c r="N46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O46" s="40" t="s">
+      <c r="O46" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10554,25 +10565,25 @@
       <c r="H47" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="41" t="s">
         <v>742</v>
       </c>
       <c r="J47" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K47" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L47" s="40" t="s">
+      <c r="K47" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="40" t="s">
+      <c r="M47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="40" t="s">
+      <c r="N47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="40" t="s">
+      <c r="O47" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10601,25 +10612,25 @@
       <c r="H48" s="40" t="s">
         <v>743</v>
       </c>
-      <c r="I48" s="40" t="s">
+      <c r="I48" s="41" t="s">
         <v>716</v>
       </c>
       <c r="J48" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K48" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L48" s="40" t="s">
+      <c r="K48" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L48" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="40" t="s">
+      <c r="M48" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="40" t="s">
+      <c r="N48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="O48" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10648,25 +10659,25 @@
       <c r="H49" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J49" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K49" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L49" s="40" t="s">
+      <c r="K49" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="40" t="s">
+      <c r="M49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="40" t="s">
+      <c r="N49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="40" t="s">
+      <c r="O49" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10695,25 +10706,25 @@
       <c r="H50" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="41" t="s">
         <v>747</v>
       </c>
       <c r="J50" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K50" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L50" s="40" t="s">
+      <c r="K50" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="40" t="s">
+      <c r="O50" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10742,25 +10753,25 @@
       <c r="H51" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="41" t="s">
         <v>724</v>
       </c>
       <c r="J51" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K51" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L51" s="40" t="s">
+      <c r="K51" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L51" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="N51" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O51" s="40" t="s">
+      <c r="O51" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10789,25 +10800,25 @@
       <c r="H52" s="40" t="s">
         <v>752</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="41" t="s">
         <v>753</v>
       </c>
       <c r="J52" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="K52" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L52" s="40" t="s">
+      <c r="K52" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="40" t="s">
+      <c r="M52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N52" s="40" t="s">
+      <c r="N52" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O52" s="40" t="s">
+      <c r="O52" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10836,25 +10847,25 @@
       <c r="H53" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="41" t="s">
         <v>758</v>
       </c>
       <c r="J53" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K53" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L53" s="40" t="s">
+      <c r="K53" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="40" t="s">
+      <c r="M53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="40" t="s">
+      <c r="N53" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O53" s="40" t="s">
+      <c r="O53" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10883,25 +10894,25 @@
       <c r="H54" s="40" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="41" t="s">
         <v>693</v>
       </c>
       <c r="J54" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K54" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L54" s="40" t="s">
+      <c r="K54" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L54" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M54" s="40" t="s">
+      <c r="M54" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="40" t="s">
+      <c r="N54" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O54" s="40" t="s">
+      <c r="O54" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10930,25 +10941,25 @@
       <c r="H55" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="I55" s="40" t="s">
+      <c r="I55" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J55" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K55" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L55" s="40" t="s">
+      <c r="K55" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L55" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M55" s="40" t="s">
+      <c r="M55" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="40" t="s">
+      <c r="N55" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O55" s="40" t="s">
+      <c r="O55" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10977,25 +10988,25 @@
       <c r="H56" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J56" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="K56" s="40" t="s">
+      <c r="K56" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="L56" s="40" t="s">
+      <c r="L56" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N56" s="40" t="s">
+      <c r="N56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O56" s="40" t="s">
+      <c r="O56" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11024,25 +11035,25 @@
       <c r="H57" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="I57" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J57" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="L57" s="40" t="s">
+      <c r="L57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="M57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N57" s="40" t="s">
+      <c r="N57" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O57" s="40" t="s">
+      <c r="O57" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11071,60 +11082,60 @@
       <c r="H58" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J58" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="K58" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="L58" s="40" t="s">
+      <c r="L58" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="M58" s="40" t="s">
+      <c r="M58" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N58" s="40" t="s">
+      <c r="N58" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O58" s="40" t="s">
+      <c r="O58" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="46" t="s">
         <v>673</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="46" t="s">
         <v>765</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="47" t="s">
+      <c r="H59" s="48" t="s">
         <v>701</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="49" t="s">
         <v>682</v>
       </c>
-      <c r="J59" s="47" t="s">
+      <c r="J59" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="K59" s="47" t="s">
+      <c r="K59" s="49" t="s">
         <v>697</v>
       </c>
       <c r="L59" s="47" t="s">
@@ -11165,25 +11176,25 @@
       <c r="H60" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J60" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="L60" s="40" t="s">
+      <c r="L60" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M60" s="40" t="s">
+      <c r="M60" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N60" s="40" t="s">
+      <c r="N60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O60" s="40" t="s">
+      <c r="O60" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11212,25 +11223,25 @@
       <c r="H61" s="40" t="s">
         <v>769</v>
       </c>
-      <c r="I61" s="40" t="s">
+      <c r="I61" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J61" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="K61" s="40" t="s">
+      <c r="K61" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="L61" s="40" t="s">
+      <c r="L61" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M61" s="40" t="s">
+      <c r="M61" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N61" s="40" t="s">
+      <c r="N61" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O61" s="40" t="s">
+      <c r="O61" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11259,25 +11270,25 @@
       <c r="H62" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J62" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K62" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L62" s="40" t="s">
+      <c r="K62" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L62" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M62" s="40" t="s">
+      <c r="M62" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N62" s="40" t="s">
+      <c r="N62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O62" s="40" t="s">
+      <c r="O62" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11306,25 +11317,25 @@
       <c r="H63" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="41" t="s">
         <v>673</v>
       </c>
       <c r="J63" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="K63" s="40" t="s">
+      <c r="K63" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="L63" s="40" t="s">
+      <c r="L63" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M63" s="40" t="s">
+      <c r="M63" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N63" s="40" t="s">
+      <c r="N63" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O63" s="40" t="s">
+      <c r="O63" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11353,25 +11364,25 @@
       <c r="H64" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I64" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J64" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K64" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L64" s="40" t="s">
+      <c r="K64" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L64" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M64" s="40" t="s">
+      <c r="M64" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N64" s="40" t="s">
+      <c r="N64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="40" t="s">
+      <c r="O64" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11400,25 +11411,25 @@
       <c r="H65" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I65" s="40" t="s">
+      <c r="I65" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J65" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="K65" s="40" t="s">
+      <c r="K65" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="L65" s="40" t="s">
+      <c r="L65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M65" s="40" t="s">
+      <c r="M65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N65" s="40" t="s">
+      <c r="N65" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O65" s="40" t="s">
+      <c r="O65" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11447,25 +11458,25 @@
       <c r="H66" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="I66" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J66" s="40" t="s">
         <v>774</v>
       </c>
-      <c r="K66" s="40" t="s">
+      <c r="K66" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="L66" s="40" t="s">
+      <c r="L66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M66" s="40" t="s">
+      <c r="M66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N66" s="40" t="s">
+      <c r="N66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O66" s="40" t="s">
+      <c r="O66" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11494,25 +11505,25 @@
       <c r="H67" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="I67" s="40" t="s">
+      <c r="I67" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J67" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K67" s="40" t="s">
+      <c r="K67" s="41" t="s">
         <v>688</v>
       </c>
-      <c r="L67" s="40" t="s">
+      <c r="L67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M67" s="40" t="s">
+      <c r="M67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N67" s="40" t="s">
+      <c r="N67" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O67" s="40" t="s">
+      <c r="O67" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11541,25 +11552,25 @@
       <c r="H68" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="I68" s="40" t="s">
+      <c r="I68" s="41" t="s">
         <v>704</v>
       </c>
       <c r="J68" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K68" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L68" s="40" t="s">
+      <c r="K68" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L68" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M68" s="40" t="s">
+      <c r="M68" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="40" t="s">
+      <c r="N68" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="O68" s="40" t="s">
+      <c r="O68" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11588,25 +11599,25 @@
       <c r="H69" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="I69" s="40" t="s">
+      <c r="I69" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J69" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="K69" s="40" t="s">
+      <c r="K69" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="L69" s="40" t="s">
+      <c r="L69" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M69" s="40" t="s">
+      <c r="M69" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N69" s="40" t="s">
+      <c r="N69" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O69" s="40" t="s">
+      <c r="O69" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11635,25 +11646,25 @@
       <c r="H70" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="I70" s="40" t="s">
+      <c r="I70" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J70" s="40" t="s">
         <v>779</v>
       </c>
-      <c r="K70" s="40" t="s">
+      <c r="K70" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="L70" s="40" t="s">
+      <c r="L70" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M70" s="40" t="s">
+      <c r="M70" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N70" s="40" t="s">
+      <c r="N70" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O70" s="40" t="s">
+      <c r="O70" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11682,25 +11693,25 @@
       <c r="H71" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="I71" s="40" t="s">
+      <c r="I71" s="41" t="s">
         <v>780</v>
       </c>
       <c r="J71" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K71" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L71" s="40" t="s">
+      <c r="K71" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L71" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M71" s="40" t="s">
+      <c r="M71" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N71" s="40" t="s">
+      <c r="N71" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O71" s="40" t="s">
+      <c r="O71" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11729,25 +11740,25 @@
       <c r="H72" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="41" t="s">
         <v>783</v>
       </c>
       <c r="J72" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K72" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L72" s="40" t="s">
+      <c r="K72" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N72" s="40" t="s">
+      <c r="N72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O72" s="40" t="s">
+      <c r="O72" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11776,25 +11787,25 @@
       <c r="H73" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="I73" s="40" t="s">
+      <c r="I73" s="41" t="s">
         <v>689</v>
       </c>
       <c r="J73" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K73" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L73" s="40" t="s">
+      <c r="K73" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L73" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M73" s="40" t="s">
+      <c r="M73" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N73" s="40" t="s">
+      <c r="N73" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O73" s="40" t="s">
+      <c r="O73" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11823,25 +11834,25 @@
       <c r="H74" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="41" t="s">
         <v>689</v>
       </c>
       <c r="J74" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="K74" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L74" s="40" t="s">
+      <c r="K74" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L74" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M74" s="40" t="s">
+      <c r="M74" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N74" s="40" t="s">
+      <c r="N74" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O74" s="40" t="s">
+      <c r="O74" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11870,25 +11881,25 @@
       <c r="H75" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I75" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J75" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="K75" s="40" t="s">
+      <c r="K75" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="L75" s="40" t="s">
+      <c r="L75" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M75" s="40" t="s">
+      <c r="M75" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N75" s="40" t="s">
+      <c r="N75" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O75" s="40" t="s">
+      <c r="O75" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11917,25 +11928,25 @@
       <c r="H76" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I76" s="40" t="s">
+      <c r="I76" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J76" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K76" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L76" s="40" t="s">
+      <c r="K76" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L76" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M76" s="40" t="s">
+      <c r="M76" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N76" s="40" t="s">
+      <c r="N76" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O76" s="40" t="s">
+      <c r="O76" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11964,25 +11975,25 @@
       <c r="H77" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="41" t="s">
         <v>697</v>
       </c>
       <c r="J77" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K77" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L77" s="40" t="s">
+      <c r="K77" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L77" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M77" s="40" t="s">
+      <c r="M77" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N77" s="40" t="s">
+      <c r="N77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O77" s="40" t="s">
+      <c r="O77" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12011,25 +12022,25 @@
       <c r="H78" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I78" s="40" t="s">
+      <c r="I78" s="41" t="s">
         <v>699</v>
       </c>
       <c r="J78" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K78" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L78" s="40" t="s">
+      <c r="K78" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L78" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M78" s="40" t="s">
+      <c r="M78" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N78" s="40" t="s">
+      <c r="N78" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O78" s="40" t="s">
+      <c r="O78" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12058,25 +12069,25 @@
       <c r="H79" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="I79" s="40" t="s">
+      <c r="I79" s="41" t="s">
         <v>680</v>
       </c>
       <c r="J79" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="K79" s="40" t="s">
+      <c r="K79" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L79" s="40" t="s">
+      <c r="L79" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M79" s="40" t="s">
+      <c r="M79" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N79" s="40" t="s">
+      <c r="N79" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O79" s="40" t="s">
+      <c r="O79" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12105,25 +12116,25 @@
       <c r="H80" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J80" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K80" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L80" s="40" t="s">
+      <c r="K80" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M80" s="40" t="s">
+      <c r="M80" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N80" s="40" t="s">
+      <c r="N80" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O80" s="40" t="s">
+      <c r="O80" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12152,25 +12163,25 @@
       <c r="H81" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="41" t="s">
         <v>687</v>
       </c>
       <c r="J81" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="K81" s="40" t="s">
+      <c r="K81" s="41" t="s">
         <v>798</v>
       </c>
-      <c r="L81" s="40" t="s">
+      <c r="L81" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M81" s="40" t="s">
+      <c r="M81" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N81" s="40" t="s">
+      <c r="N81" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O81" s="40" t="s">
+      <c r="O81" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12199,25 +12210,25 @@
       <c r="H82" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="I82" s="40" t="s">
+      <c r="I82" s="41" t="s">
         <v>801</v>
       </c>
       <c r="J82" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K82" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L82" s="40" t="s">
+      <c r="K82" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="40" t="s">
+      <c r="M82" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N82" s="40" t="s">
+      <c r="N82" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O82" s="40" t="s">
+      <c r="O82" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12246,25 +12257,25 @@
       <c r="H83" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I83" s="40" t="s">
+      <c r="I83" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J83" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K83" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L83" s="40" t="s">
+      <c r="K83" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M83" s="40" t="s">
+      <c r="M83" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N83" s="40" t="s">
+      <c r="N83" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O83" s="40" t="s">
+      <c r="O83" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12293,25 +12304,25 @@
       <c r="H84" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J84" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="K84" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L84" s="40" t="s">
+      <c r="K84" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L84" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M84" s="40" t="s">
+      <c r="M84" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N84" s="40" t="s">
+      <c r="N84" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O84" s="40" t="s">
+      <c r="O84" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12340,25 +12351,25 @@
       <c r="H85" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="41" t="s">
         <v>682</v>
       </c>
       <c r="J85" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K85" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L85" s="40" t="s">
+      <c r="K85" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L85" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M85" s="40" t="s">
+      <c r="M85" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="N85" s="40" t="s">
+      <c r="N85" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O85" s="40" t="s">
+      <c r="O85" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12387,25 +12398,25 @@
       <c r="H86" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="I86" s="40" t="s">
+      <c r="I86" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J86" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K86" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L86" s="40" t="s">
+      <c r="K86" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M86" s="40" t="s">
+      <c r="M86" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N86" s="40" t="s">
+      <c r="N86" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O86" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12434,25 +12445,25 @@
       <c r="H87" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J87" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K87" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L87" s="40" t="s">
+      <c r="K87" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L87" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M87" s="40" t="s">
+      <c r="M87" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N87" s="40" t="s">
+      <c r="N87" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O87" s="40" t="s">
+      <c r="O87" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12481,25 +12492,25 @@
       <c r="H88" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="I88" s="40" t="s">
+      <c r="I88" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J88" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K88" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L88" s="40" t="s">
+      <c r="K88" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M88" s="40" t="s">
+      <c r="M88" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N88" s="40" t="s">
+      <c r="N88" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O88" s="40" t="s">
+      <c r="O88" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12528,25 +12539,25 @@
       <c r="H89" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="I89" s="40" t="s">
+      <c r="I89" s="41" t="s">
         <v>806</v>
       </c>
       <c r="J89" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K89" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L89" s="40" t="s">
+      <c r="K89" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L89" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M89" s="40" t="s">
+      <c r="M89" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N89" s="40" t="s">
+      <c r="N89" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O89" s="40" t="s">
+      <c r="O89" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12575,25 +12586,25 @@
       <c r="H90" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="I90" s="40" t="s">
+      <c r="I90" s="41" t="s">
         <v>680</v>
       </c>
       <c r="J90" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="K90" s="40" t="s">
+      <c r="K90" s="41" t="s">
         <v>809</v>
       </c>
-      <c r="L90" s="40" t="s">
+      <c r="L90" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M90" s="40" t="s">
+      <c r="M90" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N90" s="40" t="s">
+      <c r="N90" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="O90" s="40" t="s">
+      <c r="O90" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12622,25 +12633,25 @@
       <c r="H91" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="I91" s="40" t="s">
+      <c r="I91" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J91" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="K91" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L91" s="40" t="s">
+      <c r="K91" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L91" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M91" s="40" t="s">
+      <c r="M91" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N91" s="40" t="s">
+      <c r="N91" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="O91" s="40" t="s">
+      <c r="O91" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12669,25 +12680,25 @@
       <c r="H92" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="I92" s="40" t="s">
+      <c r="I92" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J92" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="K92" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L92" s="40" t="s">
+      <c r="K92" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L92" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M92" s="40" t="s">
+      <c r="M92" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N92" s="40" t="s">
+      <c r="N92" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O92" s="40" t="s">
+      <c r="O92" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12716,25 +12727,25 @@
       <c r="H93" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="I93" s="40" t="s">
+      <c r="I93" s="41" t="s">
         <v>678</v>
       </c>
       <c r="J93" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K93" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L93" s="40" t="s">
+      <c r="K93" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L93" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M93" s="40" t="s">
+      <c r="M93" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N93" s="40" t="s">
+      <c r="N93" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="O93" s="40" t="s">
+      <c r="O93" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12763,25 +12774,25 @@
       <c r="H94" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="I94" s="40" t="s">
+      <c r="I94" s="41" t="s">
         <v>812</v>
       </c>
       <c r="J94" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="K94" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L94" s="40" t="s">
+      <c r="K94" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L94" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M94" s="40" t="s">
+      <c r="M94" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N94" s="40" t="s">
+      <c r="N94" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O94" s="40" t="s">
+      <c r="O94" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12810,60 +12821,60 @@
       <c r="H95" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="I95" s="40" t="s">
+      <c r="I95" s="41" t="s">
         <v>677</v>
       </c>
       <c r="J95" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="K95" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="L95" s="40" t="s">
+      <c r="K95" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="L95" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="M95" s="40" t="s">
+      <c r="M95" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N95" s="40" t="s">
+      <c r="N95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O95" s="40" t="s">
+      <c r="O95" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="F96" s="45" t="s">
+      <c r="F96" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="G96" s="46" t="s">
+      <c r="G96" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H96" s="47" t="s">
+      <c r="H96" s="48" t="s">
         <v>693</v>
       </c>
-      <c r="I96" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="J96" s="47" t="s">
+      <c r="I96" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" s="48" t="s">
         <v>693</v>
       </c>
-      <c r="K96" s="47" t="s">
+      <c r="K96" s="49" t="s">
         <v>677</v>
       </c>
       <c r="L96" s="47" t="s">

--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <x:fileVersion xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <x:workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esahu\source\repos\OpenXMLExcel\WebApplication1\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Hierarchy" sheetId="1" r:id="rId2"/>
-    <sheet name="Database &amp; Connectivity" sheetId="2" r:id="rId3"/>
-    <sheet name="Power Systems" sheetId="3" r:id="rId4"/>
-    <sheet name="Z Systems" sheetId="4" r:id="rId5"/>
-    <sheet name="Product Summary" sheetId="6" r:id="rId7"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Product Summary'!$A$1:$O$1</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Hierarchy" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Database &amp; Connectivity" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Power Systems" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Z Systems" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Product Summary" sheetId="6" r:id="rId7"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Product Summary'!$A$1:$O$1</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="144525"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8355,4544 +8355,4544 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-  <sheetPr/>
-  <dimension ref="A1:O96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="68" zoomScaleSheetLayoutView="60" zoomScale="68" view="normal">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="27.28125" customWidth="1"/>
-    <col min="2" max="2" width="37.57422" customWidth="1"/>
-    <col min="3" max="3" width="34.14063" customWidth="1"/>
-    <col min="4" max="4" width="34.42188" customWidth="1"/>
-    <col min="5" max="5" width="11.85156" customWidth="1"/>
-    <col min="6" max="6" width="11.28125" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="11" width="15.42188" customWidth="1"/>
-    <col min="12" max="12" width="18.42188" customWidth="1"/>
-    <col min="13" max="13" width="20.71094" customWidth="1"/>
-    <col min="14" max="14" width="18.42188" customWidth="1"/>
-    <col min="15" max="15" width="19.57422" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39" customFormat="true" s="31">
-      <c r="A1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>675</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>681</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>683</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>691</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>692</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>695</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>699</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>686</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>702</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>708</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>710</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J25" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>717</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>719</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>720</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K28" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>722</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>723</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>725</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="J32" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>726</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>729</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>729</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O35" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>717</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>677</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="L36" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="M36" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="N36" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="O36" s="47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>733</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K38" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>735</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>736</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K39" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L39" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>722</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>737</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>738</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L40" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>682</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O43" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>739</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>688</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J45" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K45" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J46" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K46" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>742</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K47" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L47" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>743</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>716</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K48" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L48" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>724</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J49" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K49" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>746</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>747</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>717</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K51" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L51" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N51" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O51" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>750</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>752</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>753</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>754</v>
-      </c>
-      <c r="K52" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O52" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>756</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>758</v>
-      </c>
-      <c r="J53" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>744</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>693</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K54" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L54" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>727</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J55" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L55" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O55" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N56" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O56" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>760</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J57" s="40" t="s">
-        <v>762</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="L57" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>763</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>695</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J58" s="40" t="s">
-        <v>764</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="L58" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="F59" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="G59" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="J59" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="K59" s="49" t="s">
-        <v>697</v>
-      </c>
-      <c r="L59" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M59" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="N59" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="O59" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="I60" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="L60" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O60" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>767</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>769</v>
-      </c>
-      <c r="I61" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J61" s="40" t="s">
-        <v>770</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M61" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G62" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I62" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J62" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M62" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>750</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="J63" s="40" t="s">
-        <v>699</v>
-      </c>
-      <c r="K63" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="L63" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N63" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O63" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J64" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L64" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>773</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>722</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>774</v>
-      </c>
-      <c r="K66" s="41" t="s">
-        <v>703</v>
-      </c>
-      <c r="L66" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N66" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O66" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>688</v>
-      </c>
-      <c r="I67" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J67" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K67" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="L67" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N67" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>685</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="J68" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K68" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N68" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="O68" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>739</v>
-      </c>
-      <c r="I69" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J69" s="40" t="s">
-        <v>764</v>
-      </c>
-      <c r="K69" s="41" t="s">
-        <v>703</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N69" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O69" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J70" s="40" t="s">
-        <v>779</v>
-      </c>
-      <c r="K70" s="41" t="s">
-        <v>727</v>
-      </c>
-      <c r="L70" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M70" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N70" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="I71" s="41" t="s">
-        <v>780</v>
-      </c>
-      <c r="J71" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K71" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L71" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N71" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O71" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="I72" s="41" t="s">
-        <v>783</v>
-      </c>
-      <c r="J72" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K72" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L72" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M72" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N72" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O72" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>784</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>785</v>
-      </c>
-      <c r="I73" s="41" t="s">
-        <v>689</v>
-      </c>
-      <c r="J73" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K73" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N73" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>764</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>689</v>
-      </c>
-      <c r="J74" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="K74" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L74" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N74" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>789</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J75" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="K75" s="41" t="s">
-        <v>791</v>
-      </c>
-      <c r="L75" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M75" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N75" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O75" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G76" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I76" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J76" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K76" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L76" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M76" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N76" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O76" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>725</v>
-      </c>
-      <c r="I77" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J77" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K77" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L77" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N77" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="G78" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="I78" s="41" t="s">
-        <v>699</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K78" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L78" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M78" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N78" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O78" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>750</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="I79" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="J79" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="K79" s="41" t="s">
-        <v>689</v>
-      </c>
-      <c r="L79" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M79" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N79" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O79" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I80" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J80" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K80" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L80" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M80" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N80" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>795</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H81" s="40" t="s">
-        <v>796</v>
-      </c>
-      <c r="I81" s="41" t="s">
-        <v>687</v>
-      </c>
-      <c r="J81" s="40" t="s">
-        <v>797</v>
-      </c>
-      <c r="K81" s="41" t="s">
-        <v>798</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M81" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N81" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O81" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="G82" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>800</v>
-      </c>
-      <c r="I82" s="41" t="s">
-        <v>801</v>
-      </c>
-      <c r="J82" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K82" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L82" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M82" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N82" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O82" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F83" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I83" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J83" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K83" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L83" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M83" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N83" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O83" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>802</v>
-      </c>
-      <c r="G84" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="I84" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J84" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="K84" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L84" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M84" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N84" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O84" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>803</v>
-      </c>
-      <c r="G85" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H85" s="40" t="s">
-        <v>739</v>
-      </c>
-      <c r="I85" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="J85" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K85" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L85" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="N85" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O85" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="G86" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="I86" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J86" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K86" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L86" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M86" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N86" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O86" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="I87" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J87" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="K87" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L87" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M87" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N87" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O87" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F88" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="G88" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="I88" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J88" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="K88" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L88" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M88" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N88" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O88" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>804</v>
-      </c>
-      <c r="G89" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>805</v>
-      </c>
-      <c r="I89" s="41" t="s">
-        <v>806</v>
-      </c>
-      <c r="J89" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K89" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L89" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M89" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N89" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O89" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>807</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>795</v>
-      </c>
-      <c r="I90" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="J90" s="40" t="s">
-        <v>808</v>
-      </c>
-      <c r="K90" s="41" t="s">
-        <v>809</v>
-      </c>
-      <c r="L90" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M90" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N90" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="O90" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F91" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="G91" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="I91" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J91" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="K91" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L91" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M91" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N91" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="O91" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="G92" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H92" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="I92" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J92" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="K92" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L92" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M92" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N92" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O92" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="I93" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="J93" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K93" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L93" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M93" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N93" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="O93" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="F94" s="38" t="s">
-        <v>810</v>
-      </c>
-      <c r="G94" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H94" s="40" t="s">
-        <v>811</v>
-      </c>
-      <c r="I94" s="41" t="s">
-        <v>812</v>
-      </c>
-      <c r="J94" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="K94" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L94" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M94" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="N94" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O94" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>717</v>
-      </c>
-      <c r="F95" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="G95" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H95" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="J95" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="K95" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="L95" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="M95" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="N95" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O95" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="F96" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="G96" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H96" s="48" t="s">
-        <v>693</v>
-      </c>
-      <c r="I96" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="J96" s="48" t="s">
-        <v>693</v>
-      </c>
-      <c r="K96" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="L96" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="M96" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="N96" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="O96" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:O1"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="1" fitToWidth="1" fitToHeight="1" horizontalDpi="90" verticalDpi="90" copies="1" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr/>
+  <x:dimension ref="A1:O96"/>
+  <x:sheetViews>
+    <x:sheetView view="normal" topLeftCell="A1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5"/>
+  <x:cols>
+    <x:col min="1" max="1" width="27.28125" customWidth="1"/>
+    <x:col min="2" max="2" width="37.57422" customWidth="1"/>
+    <x:col min="3" max="3" width="34.14063" customWidth="1"/>
+    <x:col min="4" max="4" width="34.42188" customWidth="1"/>
+    <x:col min="5" max="5" width="11.85156" customWidth="1"/>
+    <x:col min="6" max="6" width="11.28125" customWidth="1"/>
+    <x:col min="7" max="7" width="11.90625" customWidth="1"/>
+    <x:col min="8" max="11" width="15.42188" customWidth="1"/>
+    <x:col min="12" max="12" width="18.42188" customWidth="1"/>
+    <x:col min="13" max="13" width="20.71094" customWidth="1"/>
+    <x:col min="14" max="14" width="18.42188" customWidth="1"/>
+    <x:col min="15" max="15" width="19.57422" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" s="31" customFormat="true" ht="39">
+      <x:c r="A1" s="32" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="32" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C1" s="32" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" s="32" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" s="33" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="F1" s="33" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="G1" s="33"/>
+      <x:c r="H1" s="33" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="I1" s="33" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="J1" s="33" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="K1" s="33" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="L1" s="33" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="M1" s="33" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="N1" s="33" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="O1" s="33" t="s">
+        <x:v>672</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="36" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="37" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F2" s="38" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="G2" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H2" s="40" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="I2" s="41" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="J2" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K2" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L2" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M2" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N2" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O2" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="36" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E3" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="F3" s="38" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="G3" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H3" s="40" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="I3" s="41" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="J3" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K3" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L3" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M3" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N3" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O3" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="36" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="37" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E4" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F4" s="38" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="G4" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H4" s="40" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="I4" s="41" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="J4" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K4" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L4" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M4" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N4" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O4" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="37" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F5" s="38" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="G5" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H5" s="40" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="I5" s="41" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="J5" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K5" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L5" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M5" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N5" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O5" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="37" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E6" s="38" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="F6" s="38" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="G6" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H6" s="40" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="I6" s="41" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="J6" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K6" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L6" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M6" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N6" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O6" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E7" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F7" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G7" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H7" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I7" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J7" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K7" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L7" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M7" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N7" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O7" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E8" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="F8" s="38" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="G8" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H8" s="40" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="I8" s="41" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="J8" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K8" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L8" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M8" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N8" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O8" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="36" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D9" s="37" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E9" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F9" s="38" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="G9" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="40" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="I9" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="J9" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K9" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L9" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M9" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N9" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O9" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="36" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D10" s="37" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E10" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F10" s="38" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="G10" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="40" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="I10" s="41" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="J10" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K10" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L10" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M10" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N10" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O10" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="36" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D11" s="37" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E11" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F11" s="38" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="G11" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H11" s="40" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="I11" s="41" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="J11" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K11" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L11" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M11" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N11" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O11" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B12" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="36" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D12" s="37" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F12" s="38" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="G12" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H12" s="40" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="I12" s="41" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="J12" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K12" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L12" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M12" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N12" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O12" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C13" s="36" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="37" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F13" s="38" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="G13" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H13" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I13" s="41" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="J13" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K13" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L13" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M13" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N13" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O13" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="36" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D14" s="37" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F14" s="38" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="G14" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H14" s="40" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="I14" s="41" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="J14" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K14" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L14" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M14" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N14" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O14" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="36" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D15" s="37" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E15" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F15" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G15" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H15" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I15" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J15" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K15" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L15" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M15" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N15" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O15" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="35" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="36" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D16" s="37" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E16" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F16" s="38" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="G16" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H16" s="40" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="I16" s="41" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="J16" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K16" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L16" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M16" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N16" s="39" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O16" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B17" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C17" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D17" s="37" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E17" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F17" s="38" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="G17" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H17" s="40" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="I17" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J17" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K17" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L17" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M17" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N17" s="39" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="O17" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B18" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C18" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D18" s="37" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E18" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F18" s="38" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="G18" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H18" s="40" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="I18" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="J18" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K18" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L18" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M18" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N18" s="39" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O18" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B19" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C19" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D19" s="37" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E19" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F19" s="38" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="G19" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H19" s="40" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="I19" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J19" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K19" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L19" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M19" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N19" s="39" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O19" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C20" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D20" s="37" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E20" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F20" s="38" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="G20" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H20" s="40" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="I20" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J20" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K20" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L20" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M20" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N20" s="39" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="O20" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C21" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D21" s="37" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E21" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F21" s="38" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="G21" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H21" s="40" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="I21" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J21" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K21" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L21" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M21" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N21" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O21" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C22" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D22" s="37" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E22" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F22" s="38" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="G22" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H22" s="40" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="I22" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J22" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K22" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L22" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M22" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N22" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O22" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C23" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D23" s="37" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E23" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F23" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G23" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H23" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I23" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J23" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K23" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L23" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M23" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N23" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O23" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C24" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D24" s="37" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E24" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F24" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G24" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H24" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I24" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J24" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K24" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L24" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M24" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N24" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O24" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B25" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C25" s="36" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D25" s="37" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E25" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F25" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G25" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H25" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I25" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J25" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K25" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L25" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M25" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N25" s="39" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O25" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B26" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C26" s="36" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D26" s="37" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E26" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F26" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G26" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H26" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I26" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J26" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K26" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L26" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M26" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N26" s="39" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="O26" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B27" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C27" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D27" s="37" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E27" s="38" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="F27" s="38" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="G27" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H27" s="40" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="I27" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="J27" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K27" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L27" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M27" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N27" s="39" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O27" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B28" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C28" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D28" s="37" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E28" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F28" s="38" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="G28" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H28" s="40" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="I28" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="J28" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K28" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L28" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M28" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N28" s="39" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O28" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C29" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D29" s="37" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E29" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F29" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G29" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H29" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I29" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J29" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K29" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L29" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M29" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N29" s="39" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O29" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B30" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C30" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D30" s="37" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E30" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F30" s="38" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G30" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H30" s="40" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="I30" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J30" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K30" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L30" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M30" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N30" s="39" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O30" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B31" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D31" s="37" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E31" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="F31" s="38" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="G31" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H31" s="40" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="I31" s="41" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="J31" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K31" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L31" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M31" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N31" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O31" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C32" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D32" s="37" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E32" s="38" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="F32" s="38" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="G32" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H32" s="40" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="I32" s="41" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="J32" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K32" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L32" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M32" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N32" s="39" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O32" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B33" s="35" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C33" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D33" s="37" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E33" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F33" s="38" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="G33" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H33" s="40" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="I33" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J33" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K33" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L33" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M33" s="39" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N33" s="39" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="O33" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B34" s="35" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C34" s="36" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D34" s="37" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E34" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F34" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G34" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H34" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I34" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J34" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K34" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L34" s="39" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="M34" s="39" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="N34" s="39" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="O34" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" s="34" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B35" s="35" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C35" s="36" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D35" s="37" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E35" s="38" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="F35" s="38" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="G35" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H35" s="40" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="I35" s="41" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="J35" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K35" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L35" s="39" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="M35" s="39" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="N35" s="39" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="O35" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" s="42" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B36" s="43" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C36" s="44" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D36" s="45" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E36" s="46" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="F36" s="46" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="G36" s="47" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H36" s="48" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="I36" s="49" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J36" s="48" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K36" s="49" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L36" s="47" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="M36" s="47" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="N36" s="47" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="O36" s="47" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B37" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C37" s="36" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D37" s="37" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E37" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F37" s="38" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="G37" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H37" s="40" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="I37" s="41" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="J37" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K37" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L37" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M37" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N37" s="39" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O37" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B38" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C38" s="36" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D38" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E38" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F38" s="38" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G38" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H38" s="40" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="I38" s="41" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="J38" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K38" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L38" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M38" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N38" s="39" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O38" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B39" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C39" s="36" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D39" s="37" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E39" s="38" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="F39" s="38" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="G39" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H39" s="40" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="I39" s="41" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="J39" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K39" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L39" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M39" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N39" s="39" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O39" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B40" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="36" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D40" s="37" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E40" s="38" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="F40" s="38" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="G40" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H40" s="40" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="I40" s="41" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="J40" s="40" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="K40" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L40" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M40" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N40" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O40" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B41" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C41" s="36" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D41" s="37" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E41" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F41" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G41" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H41" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I41" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J41" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K41" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L41" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M41" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N41" s="39" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O41" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B42" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C42" s="36" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D42" s="37" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E42" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F42" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="G42" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H42" s="40" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="I42" s="41" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="J42" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K42" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L42" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M42" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N42" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O42" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B43" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C43" s="36" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D43" s="37" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E43" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F43" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G43" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H43" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I43" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J43" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K43" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L43" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M43" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N43" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O43" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B44" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C44" s="36" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D44" s="37" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E44" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F44" s="38" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="G44" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H44" s="40" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="I44" s="41" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="J44" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K44" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L44" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M44" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N44" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O44" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B45" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C45" s="36" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D45" s="37" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E45" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F45" s="38" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="G45" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H45" s="40" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="I45" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J45" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K45" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L45" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M45" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N45" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O45" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B46" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C46" s="36" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D46" s="37" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E46" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F46" s="38" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="G46" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H46" s="40" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="I46" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J46" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K46" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L46" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M46" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N46" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O46" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B47" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C47" s="36" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D47" s="37" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E47" s="38" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="F47" s="38" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="G47" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H47" s="40" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="I47" s="41" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="J47" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K47" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L47" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M47" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N47" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O47" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B48" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C48" s="36" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D48" s="37" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E48" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F48" s="38" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="G48" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H48" s="40" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="I48" s="41" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="J48" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K48" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L48" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M48" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N48" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O48" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B49" s="35" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C49" s="36" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D49" s="37" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E49" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F49" s="38" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="G49" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H49" s="40" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="I49" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J49" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K49" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L49" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M49" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N49" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O49" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B50" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C50" s="36" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D50" s="37" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E50" s="38" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="F50" s="38" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="G50" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H50" s="40" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="I50" s="41" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="J50" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K50" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L50" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M50" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N50" s="39" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O50" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B51" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C51" s="36" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D51" s="37" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E51" s="38" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="F51" s="38" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="G51" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H51" s="40" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="I51" s="41" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="J51" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K51" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L51" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M51" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N51" s="39" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O51" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B52" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C52" s="36" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D52" s="37" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E52" s="38" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="F52" s="38" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="G52" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H52" s="40" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="I52" s="41" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="J52" s="40" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="K52" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L52" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M52" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N52" s="39" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O52" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B53" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C53" s="36" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D53" s="37" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E53" s="38" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="F53" s="38" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="G53" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H53" s="40" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="I53" s="41" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="J53" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K53" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L53" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M53" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N53" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O53" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B54" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C54" s="36" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D54" s="37" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E54" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="F54" s="38" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="G54" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H54" s="40" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="I54" s="41" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="J54" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K54" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L54" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M54" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N54" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O54" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B55" s="35" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C55" s="36" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D55" s="37" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E55" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F55" s="38" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="G55" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H55" s="40" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="I55" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J55" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K55" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L55" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M55" s="39" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N55" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O55" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B56" s="35" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C56" s="36" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D56" s="37" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E56" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F56" s="38" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="G56" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H56" s="40" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="I56" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J56" s="40" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="K56" s="41" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="L56" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M56" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="N56" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O56" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B57" s="35" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C57" s="36" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D57" s="37" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E57" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F57" s="38" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="G57" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H57" s="40" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="I57" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J57" s="40" t="s">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="K57" s="41" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="L57" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M57" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="N57" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O57" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" s="34" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B58" s="35" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C58" s="36" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D58" s="37" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E58" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F58" s="38" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="G58" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H58" s="40" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="I58" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J58" s="40" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="K58" s="41" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="L58" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M58" s="39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="N58" s="39" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O58" s="39" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" s="42" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B59" s="43" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C59" s="44" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D59" s="45" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E59" s="46" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F59" s="46" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="G59" s="47" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H59" s="48" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="I59" s="49" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="J59" s="48" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="K59" s="49" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="L59" s="47" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M59" s="47" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="N59" s="47" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O59" s="47" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B60" s="35" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C60" s="36" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D60" s="37" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E60" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F60" s="38" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="G60" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H60" s="40" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="I60" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J60" s="40" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="K60" s="41" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="L60" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M60" s="39" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N60" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O60" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B61" s="35" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C61" s="36" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D61" s="37" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E61" s="38" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="F61" s="38" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="G61" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H61" s="40" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="I61" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J61" s="40" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="K61" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="L61" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M61" s="39" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N61" s="39" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O61" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B62" s="35" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C62" s="36" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D62" s="37" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E62" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F62" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G62" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H62" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I62" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J62" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K62" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L62" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M62" s="39" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N62" s="39" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O62" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B63" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C63" s="36" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D63" s="37" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E63" s="38" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="F63" s="38" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="G63" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H63" s="40" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="I63" s="41" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="J63" s="40" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="K63" s="41" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="L63" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M63" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N63" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O63" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B64" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C64" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D64" s="37" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E64" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F64" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="G64" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H64" s="40" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="I64" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J64" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K64" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L64" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M64" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N64" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O64" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B65" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C65" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D65" s="37" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E65" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F65" s="38" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="G65" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H65" s="40" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="I65" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J65" s="40" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="K65" s="41" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="L65" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M65" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N65" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O65" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B66" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C66" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D66" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E66" s="38" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="F66" s="38" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="G66" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H66" s="40" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="I66" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J66" s="40" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="K66" s="41" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="L66" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M66" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N66" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O66" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B67" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C67" s="36" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D67" s="37" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E67" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F67" s="38" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="G67" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H67" s="40" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="I67" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J67" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K67" s="41" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="L67" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M67" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N67" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O67" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B68" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C68" s="36" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D68" s="37" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E68" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="F68" s="38" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="G68" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H68" s="40" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="I68" s="41" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="J68" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K68" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L68" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M68" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N68" s="39" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O68" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B69" s="35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C69" s="36" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D69" s="37" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E69" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F69" s="38" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="G69" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H69" s="40" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="I69" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J69" s="40" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="K69" s="41" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="L69" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M69" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N69" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O69" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B70" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C70" s="36" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D70" s="37" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E70" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F70" s="38" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="G70" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H70" s="40" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="I70" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J70" s="40" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="K70" s="41" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="L70" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M70" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N70" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O70" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B71" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C71" s="36" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D71" s="37" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E71" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="F71" s="38" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="G71" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H71" s="40" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="I71" s="41" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="J71" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K71" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L71" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M71" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N71" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O71" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B72" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C72" s="36" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D72" s="37" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E72" s="38" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="F72" s="38" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="G72" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H72" s="40" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="I72" s="41" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="J72" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K72" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L72" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M72" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N72" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O72" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B73" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C73" s="36" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D73" s="37" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E73" s="38" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F73" s="38" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="G73" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H73" s="40" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="I73" s="41" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="J73" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K73" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L73" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M73" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N73" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O73" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B74" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C74" s="36" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D74" s="37" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E74" s="38" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="F74" s="38" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="G74" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H74" s="40" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="I74" s="41" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="J74" s="40" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="K74" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L74" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M74" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N74" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O74" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B75" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C75" s="36" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D75" s="37" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E75" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="F75" s="38" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="G75" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H75" s="40" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="I75" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J75" s="40" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="K75" s="41" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="L75" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M75" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N75" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O75" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B76" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C76" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D76" s="37" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E76" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F76" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G76" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H76" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I76" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J76" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K76" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L76" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M76" s="39" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N76" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O76" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B77" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C77" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D77" s="37" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E77" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F77" s="38" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="G77" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H77" s="40" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="I77" s="41" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="J77" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K77" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L77" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M77" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N77" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O77" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B78" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C78" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D78" s="37" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E78" s="38" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="F78" s="38" t="s">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c r="G78" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H78" s="40" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="I78" s="41" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="J78" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K78" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L78" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M78" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N78" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O78" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B79" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C79" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D79" s="37" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E79" s="38" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="F79" s="38" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="G79" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H79" s="40" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="I79" s="41" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="J79" s="40" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="K79" s="41" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="L79" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M79" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N79" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O79" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B80" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C80" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D80" s="37" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E80" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F80" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G80" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H80" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I80" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J80" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K80" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L80" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M80" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N80" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O80" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B81" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C81" s="36" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D81" s="37" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E81" s="38" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="F81" s="38" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="G81" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H81" s="40" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="I81" s="41" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="J81" s="40" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="K81" s="41" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="L81" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M81" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N81" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O81" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B82" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C82" s="36" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D82" s="37" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E82" s="38" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="F82" s="38" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="G82" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H82" s="40" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="I82" s="41" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="J82" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K82" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L82" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M82" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N82" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O82" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B83" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C83" s="36" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D83" s="37" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E83" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F83" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G83" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H83" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I83" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J83" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K83" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L83" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M83" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N83" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O83" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B84" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C84" s="36" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D84" s="37" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E84" s="38" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="F84" s="38" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="G84" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H84" s="40" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="I84" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J84" s="40" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="K84" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L84" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M84" s="39" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N84" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O84" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B85" s="35" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C85" s="36" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D85" s="37" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E85" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F85" s="38" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="G85" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H85" s="40" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="I85" s="41" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="J85" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K85" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L85" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M85" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="N85" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O85" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B86" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C86" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D86" s="37" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E86" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="F86" s="38" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G86" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H86" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="I86" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J86" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K86" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L86" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M86" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N86" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="O86" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B87" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C87" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D87" s="37" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E87" s="38" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="F87" s="38" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="G87" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H87" s="40" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="I87" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J87" s="40" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="K87" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L87" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M87" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N87" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="O87" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B88" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C88" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D88" s="37" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E88" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F88" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="G88" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H88" s="40" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="I88" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J88" s="40" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="K88" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L88" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M88" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N88" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="O88" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B89" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C89" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D89" s="37" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E89" s="38" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="F89" s="38" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="G89" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H89" s="40" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="I89" s="41" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="J89" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K89" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L89" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M89" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N89" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="O89" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B90" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C90" s="36" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D90" s="37" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E90" s="38" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="F90" s="38" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="G90" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H90" s="40" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="I90" s="41" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="J90" s="40" t="s">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c r="K90" s="41" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="L90" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M90" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N90" s="39" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O90" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B91" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C91" s="36" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D91" s="37" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E91" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F91" s="38" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="G91" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H91" s="40" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="I91" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J91" s="40" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="K91" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L91" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M91" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N91" s="39" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O91" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B92" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C92" s="36" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D92" s="37" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E92" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F92" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="G92" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H92" s="40" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="I92" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J92" s="40" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="K92" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L92" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M92" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N92" s="39" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="O92" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B93" s="35" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C93" s="36" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D93" s="37" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E93" s="38" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F93" s="38" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="G93" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H93" s="40" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="I93" s="41" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="J93" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K93" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L93" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M93" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="N93" s="39" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O93" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B94" s="35" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C94" s="36" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D94" s="37" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E94" s="38" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="F94" s="38" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="G94" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H94" s="40" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="I94" s="41" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="J94" s="40" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="K94" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L94" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M94" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="N94" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O94" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B95" s="35" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C95" s="36" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D95" s="37" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E95" s="38" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="F95" s="38" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="G95" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H95" s="40" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="I95" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J95" s="40" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="K95" s="41" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L95" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M95" s="39" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="N95" s="39" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O95" s="39" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" s="42" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B96" s="43" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C96" s="44" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D96" s="45" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E96" s="46" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="F96" s="46" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="G96" s="47" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H96" s="48" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="I96" s="49" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="J96" s="48" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="K96" s="49" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L96" s="47" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M96" s="47" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="N96" s="47" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O96" s="47" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:O1"/>
+  <x:pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <x:pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="90" verticalDpi="90" copies="1" r:id="rId1"/>
+</x:worksheet>
 </file>
--- a/WebApplication1/Template/Rocket Product Hierarchy.xlsx
+++ b/WebApplication1/Template/Rocket Product Hierarchy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="801">
   <si>
     <t>Product Hierarchy</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>wIntegrate</t>
+  </si>
+  <si>
+    <t>Db2 Utilities 1</t>
   </si>
   <si>
     <t>Db2 Utilities</t>
@@ -2228,7 +2231,7 @@
     <t>93</t>
   </si>
   <si>
-    <t>97</t>
+    <t>103</t>
   </si>
   <si>
     <t>201</t>
@@ -4793,7 +4796,7 @@
         <v>153</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W37" s="17" t="s">
         <v>142</v>
@@ -4807,29 +4810,29 @@
     </row>
     <row r="38">
       <c r="B38" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T38"/>
       <c r="U38" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>142</v>
@@ -4844,26 +4847,26 @@
     <row r="39">
       <c r="B39"/>
       <c r="C39" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T39"/>
       <c r="U39" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W39" s="17" t="s">
         <v>142</v>
@@ -4877,34 +4880,34 @@
     </row>
     <row r="40">
       <c r="B40" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X40" s="17" t="s">
         <v>28</v>
@@ -4916,13 +4919,13 @@
     <row r="41">
       <c r="T41"/>
       <c r="U41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="V41" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="V41" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="W41" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="X41" s="17" t="s">
         <v>28</v>
@@ -4934,13 +4937,13 @@
     <row r="42">
       <c r="T42"/>
       <c r="U42" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V42" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X42" s="17" t="s">
         <v>28</v>
@@ -5465,11 +5468,11 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI5"/>
       <c r="AJ5" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="24">
@@ -5529,13 +5532,13 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI6" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ6" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="24">
@@ -5639,361 +5642,361 @@
         <v>152</v>
       </c>
       <c r="AH7" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI7" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ7" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AB10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AD10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AE10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AJ10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AJ11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AE13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AE14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="H16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
       <c r="AI17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
       <c r="AI18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
       <c r="AI19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="AI20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="AI21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="AI22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="AI23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="AI24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="AI25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="AI26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="AI27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="AI28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="AI29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="AI30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="AI31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="AI32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6413,503 +6416,503 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O32" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37">
       <c r="D37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O38" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39">
       <c r="O39" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40">
       <c r="O40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="O41" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7229,7 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK5"/>
       <c r="AL5"/>
@@ -7306,19 +7309,19 @@
         <v>153</v>
       </c>
       <c r="AH6" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI6" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ6" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK6" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL6" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="24">
@@ -7419,876 +7422,876 @@
         <v>150</v>
       </c>
       <c r="AG7" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AH7" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI7" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ7" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK7" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL7" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="W9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AB9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AE9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AI9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="W10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="X10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AE10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="W11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AE11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AK11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="W12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="X12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AE12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AK12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="W13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="X13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AE13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="X14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AE14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AJ14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H15" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="U15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="X15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AE15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AJ15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="U16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="W16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AE16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="U17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="X17" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AE17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="T18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="U18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="W18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="X18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AE18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="U19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="W19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="X19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AE19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AE20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="X21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AE21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="W22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="X22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H23" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="X23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="X24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X25" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M26" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF26" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="X27" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="X29" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF29" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="X30" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="X31" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF31" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32">
       <c r="X32" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF32" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33">
       <c r="X33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF33" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34">
       <c r="X34" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AF34" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35">
       <c r="X35" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36">
       <c r="X36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37">
       <c r="X37" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF37" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38">
       <c r="X38" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39">
       <c r="X39" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF39" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40">
       <c r="X40" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF40" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41">
       <c r="AF41" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42">
       <c r="AF42" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8352,7 +8355,7 @@
     <col min="13" max="13" width="18.00391" customWidth="1"/>
     <col min="14" max="14" width="5.632813" customWidth="1"/>
     <col min="15" max="18" width="15.42188" customWidth="1"/>
-    <col min="19" max="19" width="15.14063" customWidth="1"/>
+    <col min="19" max="19" width="18.42188" customWidth="1"/>
     <col min="20" max="20" width="20.71094" customWidth="1"/>
     <col min="21" max="21" width="18.42188" customWidth="1"/>
     <col min="22" max="22" width="19.57422" customWidth="1"/>
@@ -8372,54 +8375,54 @@
         <v>4</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G1" s="33"/>
       <c r="H1" s="33" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="33" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2">
@@ -8436,46 +8439,58 @@
         <v>10</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>679</v>
-      </c>
       <c r="I2" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -8492,46 +8507,58 @@
         <v>27</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F3" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>684</v>
-      </c>
       <c r="M3" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -8548,46 +8575,58 @@
         <v>31</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>688</v>
-      </c>
       <c r="J4" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -8604,46 +8643,58 @@
         <v>35</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -8660,46 +8711,58 @@
         <v>41</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>695</v>
-      </c>
       <c r="K6" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R6" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -8716,46 +8779,58 @@
         <v>47</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -8772,46 +8847,58 @@
         <v>50</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -8828,46 +8915,58 @@
         <v>52</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O9" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q9" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -8884,46 +8983,58 @@
         <v>56</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P10" s="41" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R10" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -8940,46 +9051,58 @@
         <v>61</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O11" s="40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P11" s="41" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -8996,46 +9119,58 @@
         <v>64</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O12" s="40" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P12" s="41" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -9052,46 +9187,58 @@
         <v>71</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O13" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P13" s="41" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R13" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -9108,46 +9255,58 @@
         <v>75</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="P14" s="41" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q14" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R14" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -9164,46 +9323,58 @@
         <v>80</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P15" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q15" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -9220,46 +9391,58 @@
         <v>86</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" s="40" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Q16" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -9276,46 +9459,58 @@
         <v>91</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R17" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -9332,46 +9527,58 @@
         <v>96</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P18" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R18" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -9388,46 +9595,58 @@
         <v>103</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R19" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -9444,46 +9663,58 @@
         <v>106</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O20" s="40" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R20" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -9500,46 +9731,58 @@
         <v>109</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" s="40" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q21" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -9556,46 +9799,58 @@
         <v>116</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R22" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -9612,46 +9867,58 @@
         <v>118</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R23" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -9668,46 +9935,58 @@
         <v>123</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O24" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P24" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R24" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -9724,46 +10003,58 @@
         <v>127</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -9780,46 +10071,58 @@
         <v>131</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P26" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q26" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R26" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -9836,46 +10139,58 @@
         <v>134</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F27" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="G27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>723</v>
-      </c>
       <c r="K27" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P27" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q27" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R27" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U27" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -9892,46 +10207,58 @@
         <v>138</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P28" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q28" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R28" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U28" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -9948,46 +10275,58 @@
         <v>143</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O29" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P29" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q29" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R29" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -10004,46 +10343,58 @@
         <v>145</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P30" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R30" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -10060,46 +10411,58 @@
         <v>147</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N31" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R31" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -10116,46 +10479,58 @@
         <v>149</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N32" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O32" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q32" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -10172,46 +10547,58 @@
         <v>152</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O33" s="40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P33" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q33" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R33" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -10219,55 +10606,67 @@
         <v>8</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N34" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O34" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q34" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R34" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="V34" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -10275,55 +10674,67 @@
         <v>8</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N35" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O35" s="40" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Q35" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -10331,55 +10742,67 @@
         <v>8</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L36" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N36" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O36" s="48" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q36" s="48" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R36" s="49" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S36" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="T36" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="U36" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="V36" s="47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -10396,46 +10819,58 @@
         <v>17</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O37" s="40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -10452,46 +10887,58 @@
         <v>29</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K38" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N38" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O38" s="40" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P38" s="41" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q38" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -10508,46 +10955,58 @@
         <v>32</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H39" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="J39" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="I39" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>694</v>
-      </c>
       <c r="K39" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O39" s="40" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P39" s="41" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q39" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R39" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -10564,46 +11023,58 @@
         <v>36</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J40" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q40" s="40" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="R40" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U40" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -10620,46 +11091,58 @@
         <v>43</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N41" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O41" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P41" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q41" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R41" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U41" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -10676,46 +11159,58 @@
         <v>48</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N42" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O42" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q42" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R42" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U42" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -10732,46 +11227,58 @@
         <v>51</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O43" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q43" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R43" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U43" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V43" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -10788,46 +11295,58 @@
         <v>54</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K44" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N44" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O44" s="40" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q44" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R44" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U44" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -10844,46 +11363,58 @@
         <v>57</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N45" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O45" s="40" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q45" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R45" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T45" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -10900,46 +11431,58 @@
         <v>62</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J46" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N46" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O46" s="40" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q46" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R46" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U46" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V46" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -10956,46 +11499,58 @@
         <v>48</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J47" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N47" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O47" s="40" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P47" s="41" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q47" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R47" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U47" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -11012,46 +11567,58 @@
         <v>72</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J48" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N48" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O48" s="40" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P48" s="41" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q48" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R48" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V48" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -11068,46 +11635,58 @@
         <v>77</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O49" s="40" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q49" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R49" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T49" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V49" s="39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -11124,46 +11703,58 @@
         <v>82</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N50" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O50" s="40" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P50" s="41" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Q50" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R50" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U50" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -11180,46 +11771,58 @@
         <v>87</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J51" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K51" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M51" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N51" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O51" s="40" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P51" s="41" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q51" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R51" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U51" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -11236,46 +11839,58 @@
         <v>94</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J52" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M52" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N52" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O52" s="40" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P52" s="41" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q52" s="40" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="R52" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U52" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -11292,46 +11907,58 @@
         <v>99</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J53" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N53" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O53" s="40" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P53" s="41" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q53" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R53" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T53" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U53" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V53" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -11348,46 +11975,58 @@
         <v>104</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J54" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L54" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M54" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N54" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O54" s="40" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Q54" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R54" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U54" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V54" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -11404,46 +12043,58 @@
         <v>107</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L55" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N55" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O55" s="40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q55" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R55" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T55" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U55" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -11460,46 +12111,58 @@
         <v>113</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J56" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L56" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M56" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N56" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O56" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P56" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q56" s="40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="R56" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="T56" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="U56" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V56" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -11516,46 +12179,58 @@
         <v>112</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N57" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P57" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q57" s="40" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="R57" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="T57" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="U57" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -11572,46 +12247,58 @@
         <v>120</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J58" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K58" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L58" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N58" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q58" s="40" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R58" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="T58" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="U58" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V58" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -11628,46 +12315,58 @@
         <v>124</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J59" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K59" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L59" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N59" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P59" s="49" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q59" s="48" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="R59" s="49" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S59" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="T59" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="U59" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="V59" s="47" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -11684,46 +12383,58 @@
         <v>24</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J60" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="40" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P60" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q60" s="40" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R60" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T60" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V60" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -11740,46 +12451,58 @@
         <v>23</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J61" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N61" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61" s="40" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q61" s="40" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="R61" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T61" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V61" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -11796,46 +12519,58 @@
         <v>33</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N62" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P62" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q62" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R62" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T62" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -11852,46 +12587,58 @@
         <v>39</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J63" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L63" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O63" s="40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P63" s="41" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q63" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R63" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U63" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V63" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -11908,46 +12655,58 @@
         <v>46</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J64" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K64" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L64" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M64" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N64" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O64" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P64" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q64" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R64" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U64" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V64" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -11964,46 +12723,58 @@
         <v>49</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J65" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N65" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O65" s="40" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P65" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q65" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R65" s="41" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U65" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V65" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -12020,46 +12791,58 @@
         <v>45</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J66" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K66" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L66" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M66" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N66" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O66" s="40" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P66" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q66" s="40" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="R66" s="41" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U66" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -12076,46 +12859,58 @@
         <v>55</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J67" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K67" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L67" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N67" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O67" s="40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q67" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R67" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T67" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U67" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V67" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -12132,46 +12927,58 @@
         <v>58</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J68" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L68" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N68" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O68" s="40" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="P68" s="41" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q68" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R68" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V68" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -12188,46 +12995,58 @@
         <v>63</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N69" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O69" s="40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q69" s="40" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="R69" s="41" t="s">
-        <v>694</v>
+        <v>695</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V69" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -12244,46 +13063,58 @@
         <v>67</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J70" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M70" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N70" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O70" s="40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P70" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q70" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R70" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T70" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U70" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V70" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -12300,46 +13131,58 @@
         <v>74</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J71" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K71" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N71" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O71" s="40" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P71" s="41" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R71" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T71" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U71" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V71" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -12356,46 +13199,58 @@
         <v>79</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J72" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K72" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L72" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N72" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O72" s="40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P72" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q72" s="40" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R72" s="41" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T72" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U72" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V72" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -12412,46 +13267,58 @@
         <v>85</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J73" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N73" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O73" s="40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P73" s="41" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q73" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R73" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T73" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U73" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V73" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -12468,46 +13335,58 @@
         <v>88</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J74" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K74" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M74" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N74" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O74" s="40" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P74" s="41" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q74" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R74" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T74" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U74" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V74" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -12524,46 +13403,58 @@
         <v>95</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J75" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K75" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N75" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O75" s="40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P75" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q75" s="40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="R75" s="41" t="s">
-        <v>700</v>
+        <v>701</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T75" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U75" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V75" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -12580,46 +13471,58 @@
         <v>102</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N76" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O76" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P76" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q76" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R76" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T76" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U76" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -12636,46 +13539,58 @@
         <v>105</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J77" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K77" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O77" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P77" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R77" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T77" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U77" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V77" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -12692,46 +13607,58 @@
         <v>108</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J78" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K78" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N78" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O78" s="40" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P78" s="41" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R78" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S78" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T78" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U78" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V78" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -12748,46 +13675,58 @@
         <v>115</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J79" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K79" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O79" s="40" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P79" s="41" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q79" s="40" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="R79" s="41" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="S79" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T79" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U79" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V79" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -12804,46 +13743,58 @@
         <v>117</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M80" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N80" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O80" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P80" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q80" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R80" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S80" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T80" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U80" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V80" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -12860,46 +13811,58 @@
         <v>122</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J81" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K81" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M81" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N81" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O81" s="40" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P81" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="R81" s="41" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+      <c r="S81" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T81" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U81" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V81" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -12916,46 +13879,58 @@
         <v>125</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J82" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K82" s="38" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M82" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N82" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O82" s="40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P82" s="41" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Q82" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R82" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S82" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T82" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U82" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V82" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -12972,46 +13947,58 @@
         <v>130</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M83" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N83" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O83" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P83" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q83" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R83" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S83" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T83" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U83" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V83" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -13028,46 +14015,58 @@
         <v>132</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J84" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K84" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L84" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N84" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O84" s="40" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P84" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q84" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R84" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S84" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T84" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="U84" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V84" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -13084,46 +14083,58 @@
         <v>136</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M85" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N85" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O85" s="40" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P85" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q85" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R85" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S85" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T85" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="U85" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V85" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -13140,46 +14151,58 @@
         <v>141</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M86" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N86" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O86" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P86" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q86" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R86" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S86" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T86" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U86" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="V86" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -13196,46 +14219,58 @@
         <v>144</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J87" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K87" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M87" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N87" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O87" s="40" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P87" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q87" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R87" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S87" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T87" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U87" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="V87" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -13252,46 +14287,58 @@
         <v>146</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H88" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J88" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K88" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M88" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N88" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O88" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P88" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q88" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R88" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S88" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T88" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U88" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="V88" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -13308,46 +14355,58 @@
         <v>148</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J89" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K89" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N89" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O89" s="40" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="P89" s="41" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q89" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R89" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S89" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T89" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U89" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="V89" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -13364,46 +14423,58 @@
         <v>150</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H90" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J90" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K90" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L90" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M90" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N90" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O90" s="40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P90" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q90" s="40" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R90" s="41" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="S90" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T90" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U90" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="V90" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -13417,49 +14488,61 @@
         <v>153</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H91" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J91" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K91" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M91" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N91" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O91" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P91" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q91" s="40" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="R91" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S91" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T91" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U91" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="V91" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -13470,52 +14553,64 @@
         <v>139</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H92" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J92" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K92" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M92" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N92" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O92" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P92" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q92" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R92" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S92" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T92" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U92" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="V92" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -13526,52 +14621,64 @@
         <v>139</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J93" s="38" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N93" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O93" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P93" s="41" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q93" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R93" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S93" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T93" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U93" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="V93" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -13579,55 +14686,67 @@
         <v>21</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H94" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J94" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K94" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M94" s="38" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N94" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O94" s="40" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="P94" s="41" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Q94" s="40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R94" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S94" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="T94" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="U94" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V94" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -13635,55 +14754,67 @@
         <v>21</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="J95" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="K95" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="N95" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O95" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="P95" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q95" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="R95" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="S95" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="37" t="s">
+      <c r="T95" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="E95" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="F95" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="G95" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H95" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="I95" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="J95" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="K95" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="L95" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="M95" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="N95" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="O95" s="40" t="s">
-        <v>699</v>
-      </c>
-      <c r="P95" s="41" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q95" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="R95" s="41" t="s">
-        <v>681</v>
+      <c r="U95" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V95" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -13691,55 +14822,67 @@
         <v>21</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E96" s="46" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F96" s="46" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G96" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H96" s="46" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I96" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J96" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K96" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L96" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M96" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N96" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O96" s="48" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P96" s="49" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q96" s="48" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R96" s="49" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="S96" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="T96" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="U96" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="V96" s="47" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
